--- a/Excel/Milano/total_Milano.xlsx
+++ b/Excel/Milano/total_Milano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:P65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,142 +518,142 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Luca Stoppi</t>
+          <t>Daniele Miccoli</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>187</v>
+        <v>108</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.84</v>
+        <v>3.59</v>
       </c>
       <c r="M2" t="n">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="N2" t="n">
-        <v>10.64</v>
+        <v>14.47</v>
       </c>
       <c r="O2" t="n">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Daniele Miccoli</t>
+          <t>Luca Stoppi</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>35%</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+      <c r="I3" t="n">
+        <v>166</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="M3" t="n">
         <v>18</v>
       </c>
-      <c r="D3" t="n">
-        <v>13</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>72%</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>111</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>3.61</v>
-      </c>
-      <c r="M3" t="n">
-        <v>65</v>
-      </c>
       <c r="N3" t="n">
-        <v>14.56</v>
+        <v>10.65</v>
       </c>
       <c r="O3" t="n">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Damiano Barbanera</t>
+          <t>Andrea Limonta</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -662,127 +662,127 @@
         <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>2.35</v>
+        <v>0.14</v>
       </c>
       <c r="M4" t="n">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="N4" t="n">
-        <v>11.26</v>
+        <v>10.5</v>
       </c>
       <c r="O4" t="n">
-        <v>259</v>
+        <v>231</v>
       </c>
       <c r="P4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Andrea Limonta</t>
+          <t>Cameron McAinsh</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.12</v>
+        <v>1.82</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>40</v>
       </c>
       <c r="N5" t="n">
-        <v>10.42</v>
+        <v>10.32</v>
       </c>
       <c r="O5" t="n">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cameron McAinsh</t>
+          <t>Damiano Barbanera</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>43%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>1.78</v>
+        <v>2.29</v>
       </c>
       <c r="M6" t="n">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="N6" t="n">
-        <v>10.43</v>
+        <v>10.57</v>
       </c>
       <c r="O6" t="n">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="P6" t="n">
-        <v>-3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -795,207 +795,207 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
+        <v>11</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>147</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>2</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="M7" t="n">
         <v>12</v>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>55%</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>160</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.59</v>
-      </c>
-      <c r="M7" t="n">
-        <v>13</v>
-      </c>
       <c r="N7" t="n">
-        <v>10.32</v>
+        <v>10.14</v>
       </c>
       <c r="O7" t="n">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mazzu</t>
+          <t>Sergio</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>3.31</v>
+        <v>0.71</v>
       </c>
       <c r="M8" t="n">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="N8" t="n">
-        <v>13</v>
+        <v>10.76</v>
       </c>
       <c r="O8" t="n">
-        <v>208</v>
+        <v>183</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sergio</t>
+          <t>Federico Paolucci</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" t="n">
         <v>9</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" t="n">
-        <v>0.78</v>
+        <v>0.26</v>
       </c>
       <c r="M9" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="N9" t="n">
-        <v>10.78</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="P9" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Federico Paolucci</t>
+          <t>Mazzu</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>0.26</v>
+        <v>3.29</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="N10" t="n">
-        <v>9.470000000000001</v>
+        <v>12.64</v>
       </c>
       <c r="O10" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -1004,52 +1004,52 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Fabrizio Limonta</t>
+          <t>Roby (Cri)</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>31%</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>0.53</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M11" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="N11" t="n">
-        <v>9.35</v>
+        <v>9.81</v>
       </c>
       <c r="O11" t="n">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Roby (Cri)</t>
+          <t>Fabrizio Limonta</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1079,34 +1079,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="N12" t="n">
-        <v>9.81</v>
+        <v>9.44</v>
       </c>
       <c r="O12" t="n">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1119,14 +1119,14 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D13" t="n">
         <v>7</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1148,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="M13" t="n">
         <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>9.93</v>
+        <v>10.07</v>
       </c>
       <c r="O13" t="n">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="P13" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1227,14 +1227,14 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>84</v>
+        <v>71</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1256,39 +1256,39 @@
         <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="M15" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N15" t="n">
-        <v>12.2</v>
+        <v>11.89</v>
       </c>
       <c r="O15" t="n">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="P15" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Francesco</t>
+          <t>Matteo (Riccardo)</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1301,88 +1301,88 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>93</v>
+        <v>48</v>
       </c>
       <c r="J16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>0.64</v>
+        <v>1.71</v>
       </c>
       <c r="M16" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N16" t="n">
-        <v>10.36</v>
+        <v>15</v>
       </c>
       <c r="O16" t="n">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cri Diaz Lopez</t>
+          <t>Riccardo Ricci</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>0.7</v>
       </c>
       <c r="M17" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N17" t="n">
-        <v>9.82</v>
+        <v>10.5</v>
       </c>
       <c r="O17" t="n">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Riccardo Ricci</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1392,159 +1392,159 @@
         <v>10</v>
       </c>
       <c r="D18" t="n">
+        <v>3</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>80</v>
+      </c>
+      <c r="J18" t="n">
+        <v>2</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>101</v>
+      </c>
+      <c r="P18" t="n">
         <v>5</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>1</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>82</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>1</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="M18" t="n">
-        <v>7</v>
-      </c>
-      <c r="N18" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="O18" t="n">
-        <v>105</v>
-      </c>
-      <c r="P18" t="n">
-        <v>-3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Matteo (Riccardo)</t>
+          <t>Franco</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>1.71</v>
+        <v>0.08</v>
       </c>
       <c r="M19" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="N19" t="n">
-        <v>15</v>
+        <v>8.42</v>
       </c>
       <c r="O19" t="n">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="P19" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Franco</t>
+          <t>Maurizio</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>93</v>
+        <v>55</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.08</v>
+        <v>1.11</v>
       </c>
       <c r="M20" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N20" t="n">
-        <v>8.42</v>
+        <v>10.44</v>
       </c>
       <c r="O20" t="n">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Maurizio</t>
+          <t>Cri Diaz Lopez</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1554,30 +1554,30 @@
         <v>9</v>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>22%</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="J21" t="n">
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
         <v>1.11</v>
@@ -1586,13 +1586,13 @@
         <v>10</v>
       </c>
       <c r="N21" t="n">
-        <v>10.44</v>
+        <v>9.890000000000001</v>
       </c>
       <c r="O21" t="n">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="P21" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1605,14 +1605,14 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
         <v>4</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1634,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.18</v>
+        <v>1.3</v>
       </c>
       <c r="M22" t="n">
         <v>13</v>
       </c>
       <c r="N22" t="n">
-        <v>8.359999999999999</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="O22" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P22" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23">
@@ -1706,21 +1706,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Emilano (Dani)</t>
+          <t>Coyote (Cri)</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D24" t="n">
         <v>2</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1730,51 +1730,51 @@
         <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1.62</v>
+        <v>0.5</v>
       </c>
       <c r="M24" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N24" t="n">
-        <v>9</v>
+        <v>6.8</v>
       </c>
       <c r="O24" t="n">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="P24" t="n">
-        <v>-1</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Coyote (Cri)</t>
+          <t>Emilano (Dani)</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1784,31 +1784,31 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5</v>
+        <v>1.86</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N25" t="n">
-        <v>6.8</v>
+        <v>9.57</v>
       </c>
       <c r="O25" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P25" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1868,21 +1868,21 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Pedro</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>80%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1895,48 +1895,48 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N27" t="n">
-        <v>12.6</v>
+        <v>15</v>
       </c>
       <c r="O27" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="P27" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pedro</t>
+          <t>Guido (Sergio)</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1949,48 +1949,48 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.5</v>
+        <v>0.2</v>
       </c>
       <c r="M28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
-        <v>15</v>
+        <v>11.4</v>
       </c>
       <c r="O28" t="n">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="P28" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Guido (Sergio)</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2003,28 +2003,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N29" t="n">
-        <v>11.4</v>
+        <v>13.5</v>
       </c>
       <c r="O29" t="n">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="P29" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30">
@@ -2037,14 +2037,14 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2072,13 +2072,13 @@
         <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>14</v>
+        <v>14.67</v>
       </c>
       <c r="O30" t="n">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="P30" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2354,109 +2354,109 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Coco' (Stoppi)</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>35</v>
       </c>
       <c r="C36" t="n">
+        <v>4</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>26</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M36" t="n">
         <v>3</v>
       </c>
-      <c r="D36" t="n">
-        <v>2</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>67%</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>15</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
-      </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
       <c r="N36" t="n">
-        <v>11</v>
+        <v>7.25</v>
       </c>
       <c r="O36" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="P36" t="n">
-        <v>-4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Coco' (Stoppi)</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>36</v>
       </c>
       <c r="C37" t="n">
+        <v>2</v>
+      </c>
+      <c r="D37" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>8</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>14</v>
+      </c>
+      <c r="O37" t="n">
+        <v>28</v>
+      </c>
+      <c r="P37" t="n">
         <v>4</v>
-      </c>
-      <c r="D37" t="n">
-        <v>1</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>25%</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>26</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="M37" t="n">
-        <v>3</v>
-      </c>
-      <c r="N37" t="n">
-        <v>7.25</v>
-      </c>
-      <c r="O37" t="n">
-        <v>29</v>
-      </c>
-      <c r="P37" t="n">
-        <v>2</v>
       </c>
     </row>
     <row r="38">
@@ -2466,7 +2466,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" t="n">
         <v>3</v>
@@ -3056,34 +3056,34 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Rudy Vitiello</t>
+          <t>Matteo (Mazzu)</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F49" t="n">
         <v>0</v>
       </c>
       <c r="G49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -3095,26 +3095,26 @@
         <v>1</v>
       </c>
       <c r="M49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="O49" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="P49" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Matteo (Mazzu)</t>
+          <t>Giacomo (Stoppi)</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -3164,11 +3164,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Giacomo (Stoppi)</t>
+          <t>Amico Gio</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -3200,16 +3200,16 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="O51" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Amico Gio</t>
+          <t>Ingra</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3260,10 +3260,10 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O52" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ingra</t>
+          <t>Gio (Matteo)</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3308,16 +3308,16 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O53" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3326,7 +3326,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Gio (Matteo)</t>
+          <t>Jacopo (Gianluca)</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -3368,10 +3368,10 @@
         <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3380,11 +3380,11 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Jacopo (Gianluca)</t>
+          <t>Fabio (Gianluca)</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
@@ -3434,21 +3434,21 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Fabio (Gianluca)</t>
+          <t>Terni (Damiano)</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -3470,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>11</v>
@@ -3488,11 +3488,11 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Terni (Damiano)</t>
+          <t>Rudy Vitiello</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
@@ -3509,13 +3509,13 @@
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3524,16 +3524,16 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O57" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Gian Pareo</t>
+          <t>Zen</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3578,16 +3578,16 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O58" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -3596,11 +3596,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Zen</t>
+          <t>Robi Muu</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
         <v>7</v>
@@ -3650,11 +3650,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Robi Muu</t>
+          <t>Puddi</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3692,10 +3692,10 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O60" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -3704,11 +3704,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Puddi</t>
+          <t>Dario (Francesco)</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -3740,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N61" t="n">
         <v>6</v>
@@ -3758,11 +3758,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Dario (Francesco)</t>
+          <t>Amico Matteo</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>6</v>
@@ -3812,11 +3812,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Amico Matteo</t>
+          <t>Braz</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -3854,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O63" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -3866,11 +3866,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Mario Croce</t>
+          <t>Ale (Fabri)</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -3920,11 +3920,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Braz</t>
+          <t>Carlo Tempesta</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65" t="n">
         <v>0</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3962,121 +3962,13 @@
         <v>0</v>
       </c>
       <c r="N65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O65" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Ale (Fabri)</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>63</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>0</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>10</v>
-      </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>5</v>
-      </c>
-      <c r="O66" t="n">
-        <v>5</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Carlo Tempesta</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>66</v>
-      </c>
-      <c r="C67" t="n">
-        <v>2</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>2</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>36</v>
-      </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
-        <v>1</v>
-      </c>
-      <c r="O67" t="n">
-        <v>2</v>
-      </c>
-      <c r="P67" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Excel/Milano/total_Milano.xlsx
+++ b/Excel/Milano/total_Milano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P65"/>
+  <dimension ref="A1:P66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,61 +518,61 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Daniele Miccoli</t>
+          <t>Luca Stoppi</t>
         </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>108</v>
+        <v>172</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>3.59</v>
+        <v>0.88</v>
       </c>
       <c r="M2" t="n">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="N2" t="n">
-        <v>14.47</v>
+        <v>10.83</v>
       </c>
       <c r="O2" t="n">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Luca Stoppi</t>
+          <t>Andrea Limonta</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -582,96 +582,96 @@
         <v>23</v>
       </c>
       <c r="D3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
+        <v>2</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+      <c r="I3" t="n">
+        <v>160</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>2</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M3" t="n">
         <v>4</v>
       </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-      <c r="I3" t="n">
-        <v>166</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="M3" t="n">
-        <v>18</v>
-      </c>
       <c r="N3" t="n">
-        <v>10.65</v>
+        <v>10.74</v>
       </c>
       <c r="O3" t="n">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Andrea Limonta</t>
+          <t>Daniele Miccoli</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>154</v>
+        <v>108</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.14</v>
+        <v>3.59</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>61</v>
       </c>
       <c r="N4" t="n">
-        <v>10.5</v>
+        <v>14.47</v>
       </c>
       <c r="O4" t="n">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -687,14 +687,14 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1.82</v>
+        <v>1.83</v>
       </c>
       <c r="M5" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N5" t="n">
-        <v>10.32</v>
+        <v>10.17</v>
       </c>
       <c r="O5" t="n">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="6">
@@ -741,14 +741,14 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D6" t="n">
         <v>7</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -770,19 +770,19 @@
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>2.29</v>
+        <v>2.23</v>
       </c>
       <c r="M6" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N6" t="n">
-        <v>10.57</v>
+        <v>10.36</v>
       </c>
       <c r="O6" t="n">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="P6" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="7">
@@ -795,14 +795,14 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -824,70 +824,70 @@
         <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>0.57</v>
+        <v>0.64</v>
       </c>
       <c r="M7" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="N7" t="n">
-        <v>10.14</v>
+        <v>10.32</v>
       </c>
       <c r="O7" t="n">
-        <v>213</v>
+        <v>227</v>
       </c>
       <c r="P7" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sergio</t>
+          <t>Mazzu</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>116</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>106</v>
-      </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
       <c r="L8" t="n">
-        <v>0.71</v>
+        <v>3.13</v>
       </c>
       <c r="M8" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="N8" t="n">
-        <v>10.76</v>
+        <v>12.67</v>
       </c>
       <c r="O8" t="n">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="P8" t="n">
         <v>-2</v>
@@ -896,106 +896,106 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Federico Paolucci</t>
+          <t>Sergio</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
         <v>9</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.26</v>
+        <v>0.67</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="N9" t="n">
-        <v>9.470000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="O9" t="n">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mazzu</t>
+          <t>Federico Paolucci</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>110</v>
+        <v>140</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>3.29</v>
+        <v>0.26</v>
       </c>
       <c r="M10" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>12.64</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -1011,14 +1011,14 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D11" t="n">
         <v>5</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.65</v>
       </c>
       <c r="M11" t="n">
         <v>11</v>
       </c>
       <c r="N11" t="n">
-        <v>9.81</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12">
@@ -1065,14 +1065,14 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D12" t="n">
         <v>5</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>31%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1094,19 +1094,19 @@
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="M12" t="n">
         <v>9</v>
       </c>
       <c r="N12" t="n">
-        <v>9.44</v>
+        <v>9.18</v>
       </c>
       <c r="O12" t="n">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="13">
@@ -1220,160 +1220,160 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tito</t>
+          <t>Maurizio</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.89</v>
+        <v>1.2</v>
       </c>
       <c r="M15" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N15" t="n">
-        <v>11.89</v>
+        <v>10.8</v>
       </c>
       <c r="O15" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Matteo (Riccardo)</t>
+          <t>Tito</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D16" t="n">
         <v>5</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>48</v>
+        <v>71</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.71</v>
+        <v>0.89</v>
       </c>
       <c r="M16" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N16" t="n">
-        <v>15</v>
+        <v>11.89</v>
       </c>
       <c r="O16" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="P16" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Riccardo Ricci</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>27%</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>82</v>
+        <v>90</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.7</v>
+        <v>0.18</v>
       </c>
       <c r="M17" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>10.5</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P17" t="n">
         <v>-3</v>
@@ -1382,21 +1382,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Francesco</t>
+          <t>Matteo (Riccardo)</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1409,44 +1409,44 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>80</v>
+        <v>48</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2</v>
+        <v>1.71</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="N18" t="n">
-        <v>10.1</v>
+        <v>15</v>
       </c>
       <c r="O18" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Franco</t>
+          <t>Riccardo Ricci</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1454,16 +1454,16 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1472,73 +1472,73 @@
         <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>0.08</v>
+        <v>0.7</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N19" t="n">
-        <v>8.42</v>
+        <v>10.5</v>
       </c>
       <c r="O19" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Maurizio</t>
+          <t>Franco</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" t="n">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" t="n">
-        <v>1.11</v>
+        <v>0.08</v>
       </c>
       <c r="M20" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>10.44</v>
+        <v>8.42</v>
       </c>
       <c r="O20" t="n">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="P20" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1706,21 +1706,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Coyote (Cri)</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>93</v>
+        <v>17</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1742,39 +1742,39 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="n">
-        <v>6.8</v>
+        <v>14</v>
       </c>
       <c r="O24" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="P24" t="n">
-        <v>-4</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Emilano (Dani)</t>
+          <t>Coyote (Cri)</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1784,51 +1784,51 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.86</v>
+        <v>0.5</v>
       </c>
       <c r="M25" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N25" t="n">
-        <v>9.57</v>
+        <v>6.8</v>
       </c>
       <c r="O25" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Stefano (Tito)</t>
+          <t>Emilano (Dani)</t>
         </is>
       </c>
       <c r="B26" t="n">
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1838,51 +1838,51 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J26" t="n">
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>0.33</v>
+        <v>1.86</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N26" t="n">
-        <v>10.83</v>
+        <v>9.57</v>
       </c>
       <c r="O26" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P26" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Pedro</t>
+          <t>Stefano (Tito)</t>
         </is>
       </c>
       <c r="B27" t="n">
         <v>26</v>
       </c>
       <c r="C27" t="n">
+        <v>6</v>
+      </c>
+      <c r="D27" t="n">
         <v>4</v>
       </c>
-      <c r="D27" t="n">
-        <v>3</v>
-      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F27" t="n">
@@ -1895,25 +1895,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>13</v>
+        <v>44</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>1.5</v>
+        <v>0.33</v>
       </c>
       <c r="M27" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N27" t="n">
-        <v>15</v>
+        <v>10.83</v>
       </c>
       <c r="O27" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="P27" t="n">
         <v>-6</v>
@@ -1922,21 +1922,21 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Guido (Sergio)</t>
+          <t>Pedro</t>
         </is>
       </c>
       <c r="B28" t="n">
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F28" t="n">
@@ -1949,48 +1949,48 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N28" t="n">
-        <v>11.4</v>
+        <v>15</v>
       </c>
       <c r="O28" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P28" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Guido (Sergio)</t>
         </is>
       </c>
       <c r="B29" t="n">
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2003,28 +2003,28 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0.2</v>
       </c>
       <c r="M29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>13.5</v>
+        <v>11.4</v>
       </c>
       <c r="O29" t="n">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="P29" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30">
@@ -2192,7 +2192,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Matteo Virg</t>
+          <t>Gianluca</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2202,24 +2202,24 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2228,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N33" t="n">
         <v>12.33</v>
@@ -2240,13 +2240,13 @@
         <v>37</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Gianluca</t>
+          <t>Matteo Virg</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2256,24 +2256,24 @@
         <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2282,10 +2282,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
         <v>12.33</v>
@@ -2294,7 +2294,7 @@
         <v>37</v>
       </c>
       <c r="P34" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
@@ -2354,21 +2354,21 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Leo (Cava)</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2390,106 +2390,106 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>7.25</v>
+        <v>10.67</v>
       </c>
       <c r="O36" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Coco' (Stoppi)</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>36</v>
       </c>
       <c r="C37" t="n">
+        <v>4</v>
+      </c>
+      <c r="D37" t="n">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>26</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="O37" t="n">
+        <v>29</v>
+      </c>
+      <c r="P37" t="n">
         <v>2</v>
-      </c>
-      <c r="D37" t="n">
-        <v>2</v>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
-        <v>0</v>
-      </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>8</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>14</v>
-      </c>
-      <c r="O37" t="n">
-        <v>28</v>
-      </c>
-      <c r="P37" t="n">
-        <v>4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Alessandro Gibertini</t>
+          <t>Coco' (Stoppi)</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2498,93 +2498,93 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>9.33</v>
+        <v>14</v>
       </c>
       <c r="O38" t="n">
         <v>28</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ale Guati</t>
+          <t>Alessandro Gibertini</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="J39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="M39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>13</v>
+        <v>9.33</v>
       </c>
       <c r="O39" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Andrea Scalambra</t>
+          <t>Ale Guati</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
         <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2597,38 +2597,38 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N40" t="n">
-        <v>8.67</v>
+        <v>13</v>
       </c>
       <c r="O40" t="n">
         <v>26</v>
       </c>
       <c r="P40" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Andrea Scalambra</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41" t="n">
         <v>3</v>
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -2660,39 +2660,39 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>7.67</v>
+        <v>8.67</v>
       </c>
       <c r="O41" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P41" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Fede Lelli</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2714,39 +2714,39 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>11</v>
+        <v>7.67</v>
       </c>
       <c r="O42" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P42" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Marco Taglio</t>
+          <t>Fede Lelli</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2771,36 +2771,36 @@
         <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N43" t="n">
-        <v>6.67</v>
+        <v>11</v>
       </c>
       <c r="O43" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Leo (Cava)</t>
+          <t>Marco Taglio</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2822,13 +2822,13 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N44" t="n">
-        <v>10</v>
+        <v>6.67</v>
       </c>
       <c r="O44" t="n">
         <v>20</v>
@@ -3380,7 +3380,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Fabio (Gianluca)</t>
+          <t>Terni (Damiano)</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -3390,11 +3390,11 @@
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3416,10 +3416,10 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
         <v>11</v>
@@ -3434,7 +3434,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Terni (Damiano)</t>
+          <t>Fabio (Gianluca)</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -3444,11 +3444,11 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -3470,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
         <v>11</v>
@@ -3542,7 +3542,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Zen</t>
+          <t>Mario Croce</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -3569,7 +3569,7 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3578,16 +3578,16 @@
         <v>0</v>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O58" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -3596,11 +3596,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Robi Muu</t>
+          <t>Zen</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -3632,10 +3632,10 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N59" t="n">
         <v>7</v>
@@ -3650,11 +3650,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Puddi</t>
+          <t>Robi Muu</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3692,10 +3692,10 @@
         <v>0</v>
       </c>
       <c r="N60" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O60" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -3704,11 +3704,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Dario (Francesco)</t>
+          <t>Puddi</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -3740,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>6</v>
@@ -3758,11 +3758,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Amico Matteo</t>
+          <t>Dario (Francesco)</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
         <v>6</v>
@@ -3812,11 +3812,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Braz</t>
+          <t>Amico Matteo</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -3854,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -3866,11 +3866,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Ale (Fabri)</t>
+          <t>Braz</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -3920,54 +3920,108 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>Ale (Fabri)</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F65" t="n">
+        <v>0</v>
+      </c>
+      <c r="G65" t="n">
+        <v>0</v>
+      </c>
+      <c r="H65" t="n">
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>10</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>5</v>
+      </c>
+      <c r="O65" t="n">
+        <v>5</v>
+      </c>
+      <c r="P65" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>Carlo Tempesta</t>
         </is>
       </c>
-      <c r="B65" t="n">
-        <v>64</v>
-      </c>
-      <c r="C65" t="n">
-        <v>1</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
-      </c>
-      <c r="E65" t="inlineStr">
+      <c r="B66" t="n">
+        <v>65</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="F65" t="n">
-        <v>1</v>
-      </c>
-      <c r="G65" t="n">
-        <v>0</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="n">
+      <c r="F66" t="n">
+        <v>1</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
         <v>18</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
-        <v>1</v>
-      </c>
-      <c r="O65" t="n">
-        <v>1</v>
-      </c>
-      <c r="P65" t="n">
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>1</v>
+      </c>
+      <c r="O66" t="n">
+        <v>1</v>
+      </c>
+      <c r="P66" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/total_Milano.xlsx
+++ b/Excel/Milano/total_Milano.xlsx
@@ -548,7 +548,7 @@
         <v>172</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
@@ -560,10 +560,10 @@
         <v>21</v>
       </c>
       <c r="N2" t="n">
-        <v>10.83</v>
+        <v>10.96</v>
       </c>
       <c r="O2" t="n">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="P2" t="n">
         <v>1</v>
@@ -1706,21 +1706,21 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Coyote (Cri)</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="J24" t="n">
         <v>1</v>
@@ -1742,39 +1742,39 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="n">
-        <v>14</v>
+        <v>6.8</v>
       </c>
       <c r="O24" t="n">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="P24" t="n">
-        <v>-7</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Coyote (Cri)</t>
+          <t>Emilano (Dani)</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1784,51 +1784,51 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25" t="n">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5</v>
+        <v>1.86</v>
       </c>
       <c r="M25" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N25" t="n">
-        <v>6.8</v>
+        <v>9.57</v>
       </c>
       <c r="O25" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="P25" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Emilano (Dani)</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1838,31 +1838,31 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>57</v>
+        <v>17</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="M26" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N26" t="n">
-        <v>9.57</v>
+        <v>13.4</v>
       </c>
       <c r="O26" t="n">
         <v>67</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="27">

--- a/Excel/Milano/total_Milano.xlsx
+++ b/Excel/Milano/total_Milano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P66"/>
+  <dimension ref="A1:P67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,14 +525,14 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="n">
         <v>9</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -545,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="J2" t="n">
         <v>2</v>
@@ -554,127 +554,127 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="M2" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="N2" t="n">
-        <v>10.96</v>
+        <v>10.8</v>
       </c>
       <c r="O2" t="n">
-        <v>263</v>
+        <v>270</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Andrea Limonta</t>
+          <t>Daniele Miccoli</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D3" t="n">
         <v>12</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>160</v>
+        <v>118</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.17</v>
+        <v>3.44</v>
       </c>
       <c r="M3" t="n">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="N3" t="n">
-        <v>10.74</v>
+        <v>14</v>
       </c>
       <c r="O3" t="n">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Daniele Miccoli</t>
+          <t>Andrea Limonta</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D4" t="n">
         <v>12</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="n">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" t="n">
-        <v>3.59</v>
+        <v>0.17</v>
       </c>
       <c r="M4" t="n">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="N4" t="n">
-        <v>14.47</v>
+        <v>10.42</v>
       </c>
       <c r="O4" t="n">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="5">
@@ -687,14 +687,14 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -719,16 +719,16 @@
         <v>1.83</v>
       </c>
       <c r="M5" t="n">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N5" t="n">
-        <v>10.17</v>
+        <v>10.21</v>
       </c>
       <c r="O5" t="n">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="P5" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
@@ -741,14 +741,14 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -770,19 +770,19 @@
         <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="M6" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N6" t="n">
-        <v>10.36</v>
+        <v>10.35</v>
       </c>
       <c r="O6" t="n">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="P6" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="7">
@@ -842,106 +842,106 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Mazzu</t>
+          <t>Sergio</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D8" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>3.13</v>
+        <v>0.63</v>
       </c>
       <c r="M8" t="n">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="N8" t="n">
-        <v>12.67</v>
+        <v>10.63</v>
       </c>
       <c r="O8" t="n">
-        <v>190</v>
+        <v>202</v>
       </c>
       <c r="P8" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Sergio</t>
+          <t>Mazzu</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>116</v>
       </c>
       <c r="J9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>0.67</v>
+        <v>3.13</v>
       </c>
       <c r="M9" t="n">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="N9" t="n">
-        <v>10.5</v>
+        <v>12.67</v>
       </c>
       <c r="O9" t="n">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P9" t="n">
         <v>-2</v>
@@ -1011,14 +1011,14 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>0.65</v>
+        <v>0.72</v>
       </c>
       <c r="M11" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N11" t="n">
-        <v>9.529999999999999</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="P11" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1065,14 +1065,14 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1094,19 +1094,19 @@
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0.53</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N12" t="n">
-        <v>9.18</v>
+        <v>9.220000000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="P12" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1551,14 +1551,14 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="F21" t="n">
@@ -1568,31 +1568,31 @@
         <v>2</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I21" t="n">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="M21" t="n">
+        <v>11</v>
+      </c>
+      <c r="N21" t="n">
         <v>10</v>
       </c>
-      <c r="N21" t="n">
-        <v>9.890000000000001</v>
-      </c>
       <c r="O21" t="n">
-        <v>89</v>
+        <v>100</v>
       </c>
       <c r="P21" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="22">
@@ -1605,14 +1605,14 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D22" t="n">
         <v>4</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1634,19 +1634,19 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="M22" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N22" t="n">
-        <v>8.699999999999999</v>
+        <v>8.449999999999999</v>
       </c>
       <c r="O22" t="n">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P22" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23">
@@ -1659,14 +1659,14 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D23" t="n">
         <v>5</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>83%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F23" t="n">
@@ -1679,7 +1679,7 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -1688,19 +1688,19 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N23" t="n">
-        <v>13.67</v>
+        <v>12.57</v>
       </c>
       <c r="O23" t="n">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="24">
@@ -2192,7 +2192,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Gianluca</t>
+          <t>Matteo Virg</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2202,24 +2202,24 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2228,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="n">
         <v>12.33</v>
@@ -2240,13 +2240,13 @@
         <v>37</v>
       </c>
       <c r="P33" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Matteo Virg</t>
+          <t>Gianluca</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2256,24 +2256,24 @@
         <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2282,10 +2282,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
         <v>12.33</v>
@@ -2294,7 +2294,7 @@
         <v>37</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="35">
@@ -2354,52 +2354,52 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Leo (Cava)</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>5</v>
+      </c>
+      <c r="D36" t="n">
+        <v>1</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>36</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="M36" t="n">
+        <v>4</v>
+      </c>
+      <c r="N36" t="n">
+        <v>7</v>
+      </c>
+      <c r="O36" t="n">
         <v>35</v>
-      </c>
-      <c r="C36" t="n">
-        <v>3</v>
-      </c>
-      <c r="D36" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>100%</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>0</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0</v>
-      </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>19</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="n">
-        <v>10.67</v>
-      </c>
-      <c r="O36" t="n">
-        <v>32</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -2408,21 +2408,21 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Leo (Cava)</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -2444,19 +2444,19 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>7.25</v>
+        <v>10.67</v>
       </c>
       <c r="O37" t="n">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="P37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2894,11 +2894,11 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Gianpiero</t>
+          <t>Mario Croce</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2930,25 +2930,25 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N46" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O46" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P46" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Ale (Mazzu)</t>
+          <t>Gianpiero</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2990,33 +2990,33 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O47" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P47" t="n">
-        <v>-7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Eugenio Gibertini</t>
+          <t>Ale (Mazzu)</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -3038,25 +3038,25 @@
         <v>0</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>16</v>
+        <v>8.5</v>
       </c>
       <c r="O48" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Matteo (Mazzu)</t>
+          <t>Eugenio Gibertini</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -3098,10 +3098,10 @@
         <v>1</v>
       </c>
       <c r="N49" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O49" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P49" t="n">
         <v>0</v>
@@ -3114,7 +3114,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C50" t="n">
         <v>1</v>
@@ -3164,11 +3164,11 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Amico Gio</t>
+          <t>Matteo (Mazzu)</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -3200,16 +3200,16 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O51" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Ingra</t>
+          <t>Amico Gio</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3260,10 +3260,10 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O52" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Gio (Matteo)</t>
+          <t>Ingra</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3308,16 +3308,16 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O53" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3326,7 +3326,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Jacopo (Gianluca)</t>
+          <t>Gio (Matteo)</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -3368,10 +3368,10 @@
         <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3380,21 +3380,21 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Terni (Damiano)</t>
+          <t>Jacopo (Gianluca)</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55" t="n">
         <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3416,10 +3416,10 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N55" t="n">
         <v>11</v>
@@ -3434,21 +3434,21 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Fabio (Gianluca)</t>
+          <t>Terni (Damiano)</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -3470,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
         <v>11</v>
@@ -3488,34 +3488,34 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Rudy Vitiello</t>
+          <t>Fabio (Gianluca)</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F57" t="n">
         <v>0</v>
       </c>
       <c r="G57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3530,10 +3530,10 @@
         <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O57" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Mario Croce</t>
+          <t>Rudy Vitiello</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -3563,31 +3563,31 @@
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
+        <v>18</v>
+      </c>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="n">
         <v>10</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>3</v>
-      </c>
-      <c r="M58" t="n">
-        <v>3</v>
-      </c>
-      <c r="N58" t="n">
-        <v>8</v>
-      </c>
       <c r="O58" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -3704,11 +3704,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Puddi</t>
+          <t>Rocco</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -3740,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O61" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -3758,11 +3758,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Dario (Francesco)</t>
+          <t>Puddi</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>6</v>
@@ -3812,11 +3812,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Amico Matteo</t>
+          <t>Dario (Francesco)</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -3848,10 +3848,10 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63" t="n">
         <v>6</v>
@@ -3866,11 +3866,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Braz</t>
+          <t>Amico Matteo</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -3908,10 +3908,10 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O64" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -3920,11 +3920,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Ale (Fabri)</t>
+          <t>Braz</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3974,54 +3974,108 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>Ale (Fabri)</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F66" t="n">
+        <v>0</v>
+      </c>
+      <c r="G66" t="n">
+        <v>0</v>
+      </c>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>10</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
+        <v>5</v>
+      </c>
+      <c r="O66" t="n">
+        <v>5</v>
+      </c>
+      <c r="P66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>Carlo Tempesta</t>
         </is>
       </c>
-      <c r="B66" t="n">
-        <v>65</v>
-      </c>
-      <c r="C66" t="n">
-        <v>1</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
-      </c>
-      <c r="E66" t="inlineStr">
+      <c r="B67" t="n">
+        <v>66</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="F66" t="n">
-        <v>1</v>
-      </c>
-      <c r="G66" t="n">
-        <v>0</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="n">
+      <c r="F67" t="n">
+        <v>1</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
         <v>18</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>1</v>
-      </c>
-      <c r="O66" t="n">
-        <v>1</v>
-      </c>
-      <c r="P66" t="n">
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>1</v>
+      </c>
+      <c r="O67" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/total_Milano.xlsx
+++ b/Excel/Milano/total_Milano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P67"/>
+  <dimension ref="A1:P68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,14 +525,14 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -545,25 +545,25 @@
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K2" t="n">
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="M2" t="n">
         <v>23</v>
       </c>
       <c r="N2" t="n">
-        <v>10.8</v>
+        <v>11.12</v>
       </c>
       <c r="O2" t="n">
-        <v>270</v>
+        <v>289</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -572,106 +572,106 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Daniele Miccoli</t>
+          <t>Andrea Limonta</t>
         </is>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>3.44</v>
+        <v>0.16</v>
       </c>
       <c r="M3" t="n">
-        <v>62</v>
+        <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>14</v>
+        <v>10.64</v>
       </c>
       <c r="O3" t="n">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="P3" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Andrea Limonta</t>
+          <t>Daniele Miccoli</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
         <v>12</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>170</v>
+        <v>118</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.17</v>
+        <v>3.44</v>
       </c>
       <c r="M4" t="n">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="N4" t="n">
-        <v>10.42</v>
+        <v>14</v>
       </c>
       <c r="O4" t="n">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="P4" t="n">
         <v>-1</v>
@@ -849,14 +849,14 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="F8" t="n">
@@ -869,7 +869,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="J8" t="n">
         <v>2</v>
@@ -878,19 +878,19 @@
         <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>0.63</v>
+        <v>0.75</v>
       </c>
       <c r="M8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N8" t="n">
-        <v>10.63</v>
+        <v>10.85</v>
       </c>
       <c r="O8" t="n">
-        <v>202</v>
+        <v>217</v>
       </c>
       <c r="P8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9">
@@ -903,14 +903,14 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -932,25 +932,25 @@
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.13</v>
+        <v>3.12</v>
       </c>
       <c r="M9" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="N9" t="n">
-        <v>12.67</v>
+        <v>12.81</v>
       </c>
       <c r="O9" t="n">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="P9" t="n">
-        <v>-2</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Federico Paolucci</t>
+          <t>Roby (Cri)</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -960,11 +960,11 @@
         <v>19</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -977,25 +977,25 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>0.26</v>
+        <v>0.68</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N10" t="n">
-        <v>9.470000000000001</v>
+        <v>9.58</v>
       </c>
       <c r="O10" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P10" t="n">
         <v>2</v>
@@ -1004,21 +1004,21 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Roby (Cri)</t>
+          <t>Federico Paolucci</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1031,28 +1031,28 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.72</v>
+        <v>0.26</v>
       </c>
       <c r="M11" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N11" t="n">
-        <v>9.609999999999999</v>
+        <v>9.470000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="P11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1065,14 +1065,14 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1094,19 +1094,19 @@
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="M12" t="n">
         <v>10</v>
       </c>
       <c r="N12" t="n">
-        <v>9.220000000000001</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13">
@@ -1119,14 +1119,14 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" t="n">
         <v>7</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>47%</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1148,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="M13" t="n">
         <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>10.07</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="P13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1220,183 +1220,183 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Maurizio</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>61</v>
+        <v>96</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.2</v>
+        <v>0.17</v>
       </c>
       <c r="M15" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>10.8</v>
+        <v>9.58</v>
       </c>
       <c r="O15" t="n">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="P15" t="n">
-        <v>-2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Tito</t>
+          <t>Maurizio</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.89</v>
+        <v>1.2</v>
       </c>
       <c r="M16" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N16" t="n">
-        <v>11.89</v>
+        <v>10.8</v>
       </c>
       <c r="O16" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Francesco</t>
+          <t>Tito</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L17" t="n">
-        <v>0.18</v>
+        <v>0.89</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="N17" t="n">
-        <v>9.640000000000001</v>
+        <v>11.89</v>
       </c>
       <c r="O17" t="n">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="P17" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Matteo (Riccardo)</t>
+          <t>Cri Diaz Lopez</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>27%</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1406,31 +1406,31 @@
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="M18" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N18" t="n">
-        <v>15</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="O18" t="n">
         <v>105</v>
       </c>
       <c r="P18" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1490,129 +1490,129 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Franco</t>
+          <t>Matteo (Riccardo)</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" t="n">
+        <v>7</v>
+      </c>
+      <c r="D20" t="n">
+        <v>5</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>71%</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>2</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>48</v>
+      </c>
+      <c r="J20" t="n">
+        <v>1</v>
+      </c>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M20" t="n">
         <v>12</v>
       </c>
-      <c r="D20" t="n">
-        <v>6</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>50%</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>3</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>93</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>1</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
       <c r="N20" t="n">
-        <v>8.42</v>
+        <v>15</v>
       </c>
       <c r="O20" t="n">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Cri Diaz Lopez</t>
+          <t>Jacopo</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>1.1</v>
+        <v>1.17</v>
       </c>
       <c r="M21" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="N21" t="n">
-        <v>10</v>
+        <v>8.75</v>
       </c>
       <c r="O21" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="P21" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Jacopo</t>
+          <t>Robi (Stoppi)</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F22" t="n">
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>91</v>
+        <v>36</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1634,93 +1634,93 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.27</v>
+        <v>0.38</v>
       </c>
       <c r="M22" t="n">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="N22" t="n">
-        <v>8.449999999999999</v>
+        <v>13</v>
       </c>
       <c r="O22" t="n">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="P22" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Robi (Stoppi)</t>
+          <t>Franco</t>
         </is>
       </c>
       <c r="B23" t="n">
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" t="n">
-        <v>34</v>
+        <v>93</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0.43</v>
+        <v>0.08</v>
       </c>
       <c r="M23" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N23" t="n">
-        <v>12.57</v>
+        <v>8.42</v>
       </c>
       <c r="O23" t="n">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="P23" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Coyote (Cri)</t>
+          <t>Cerro</t>
         </is>
       </c>
       <c r="B24" t="n">
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D24" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1733,48 +1733,48 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="n">
-        <v>6.8</v>
+        <v>13.17</v>
       </c>
       <c r="O24" t="n">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="P24" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Emilano (Dani)</t>
+          <t>Coyote (Cri)</t>
         </is>
       </c>
       <c r="B25" t="n">
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1784,51 +1784,51 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="J25" t="n">
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>1.86</v>
+        <v>0.5</v>
       </c>
       <c r="M25" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N25" t="n">
-        <v>9.57</v>
+        <v>6.8</v>
       </c>
       <c r="O25" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Cerro</t>
+          <t>Emilano (Dani)</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="F26" t="n">
@@ -1838,31 +1838,31 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N26" t="n">
-        <v>13.4</v>
+        <v>9.57</v>
       </c>
       <c r="O26" t="n">
         <v>67</v>
       </c>
       <c r="P26" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2192,7 +2192,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Matteo Virg</t>
+          <t>Gianluca</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2202,24 +2202,24 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2228,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N33" t="n">
         <v>12.33</v>
@@ -2240,13 +2240,13 @@
         <v>37</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Gianluca</t>
+          <t>Matteo Virg</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2256,24 +2256,24 @@
         <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2282,10 +2282,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N34" t="n">
         <v>12.33</v>
@@ -2294,27 +2294,27 @@
         <v>37</v>
       </c>
       <c r="P34" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Davide Ang</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2336,39 +2336,39 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="M35" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N35" t="n">
-        <v>11.67</v>
+        <v>7</v>
       </c>
       <c r="O35" t="n">
         <v>35</v>
       </c>
       <c r="P35" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Davide Ang</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2390,19 +2390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N36" t="n">
-        <v>7</v>
+        <v>11.67</v>
       </c>
       <c r="O36" t="n">
         <v>35</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="37">
@@ -2462,34 +2462,34 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Coco' (Stoppi)</t>
+          <t>Mario Croce</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>37</v>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2498,19 +2498,19 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N38" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="O38" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P38" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2520,7 +2520,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" t="n">
         <v>3</v>
@@ -2570,21 +2570,21 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Ale Guati</t>
+          <t>Coco' (Stoppi)</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C40" t="n">
         <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F40" t="n">
@@ -2597,48 +2597,48 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O40" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Andrea Scalambra</t>
+          <t>Ale Guati</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F41" t="n">
@@ -2651,38 +2651,38 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N41" t="n">
-        <v>8.67</v>
+        <v>13</v>
       </c>
       <c r="O41" t="n">
         <v>26</v>
       </c>
       <c r="P41" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Andrea Scalambra</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C42" t="n">
         <v>3</v>
@@ -2705,7 +2705,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -2714,39 +2714,39 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N42" t="n">
-        <v>7.67</v>
+        <v>8.67</v>
       </c>
       <c r="O42" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P42" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Fede Lelli</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>42</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2759,7 +2759,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -2768,39 +2768,39 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>11</v>
+        <v>7.67</v>
       </c>
       <c r="O43" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P43" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Marco Taglio</t>
+          <t>Fede Lelli</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2825,22 +2825,22 @@
         <v>1</v>
       </c>
       <c r="M44" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N44" t="n">
-        <v>6.67</v>
+        <v>11</v>
       </c>
       <c r="O44" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Andrea DeGa</t>
+          <t>Marco Taglio</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2876,39 +2876,39 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N45" t="n">
-        <v>6.33</v>
+        <v>6.67</v>
       </c>
       <c r="O45" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P45" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Mario Croce</t>
+          <t>Andrea DeGa</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2930,19 +2930,19 @@
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>9.5</v>
+        <v>6.33</v>
       </c>
       <c r="O46" t="n">
         <v>19</v>
       </c>
       <c r="P46" t="n">
-        <v>1</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="47">
@@ -3380,7 +3380,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Jacopo (Gianluca)</t>
+          <t>Fabio (Gianluca)</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -3488,7 +3488,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Fabio (Gianluca)</t>
+          <t>Jacopo (Gianluca)</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -3596,7 +3596,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Zen</t>
+          <t>Rocco</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -3623,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Robi Muu</t>
+          <t>Zen</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -3677,7 +3677,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3686,10 +3686,10 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N60" t="n">
         <v>7</v>
@@ -3704,7 +3704,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Rocco</t>
+          <t>Robi Muu</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -3740,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>7</v>
@@ -3920,7 +3920,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Braz</t>
+          <t>Fabio (Mario)</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3974,7 +3974,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Ale (Fabri)</t>
+          <t>Braz</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -4028,54 +4028,108 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
+          <t>Ale (Fabri)</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>64</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F67" t="n">
+        <v>0</v>
+      </c>
+      <c r="G67" t="n">
+        <v>0</v>
+      </c>
+      <c r="H67" t="n">
+        <v>0</v>
+      </c>
+      <c r="I67" t="n">
+        <v>10</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>0</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>5</v>
+      </c>
+      <c r="O67" t="n">
+        <v>5</v>
+      </c>
+      <c r="P67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
           <t>Carlo Tempesta</t>
         </is>
       </c>
-      <c r="B67" t="n">
-        <v>66</v>
-      </c>
-      <c r="C67" t="n">
-        <v>1</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
-      </c>
-      <c r="E67" t="inlineStr">
+      <c r="B68" t="n">
+        <v>67</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="F67" t="n">
-        <v>1</v>
-      </c>
-      <c r="G67" t="n">
-        <v>0</v>
-      </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="n">
+      <c r="F68" t="n">
+        <v>1</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
         <v>18</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>0</v>
-      </c>
-      <c r="M67" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" t="n">
-        <v>1</v>
-      </c>
-      <c r="O67" t="n">
-        <v>1</v>
-      </c>
-      <c r="P67" t="n">
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/total_Milano.xlsx
+++ b/Excel/Milano/total_Milano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P68"/>
+  <dimension ref="A1:P69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,14 +525,14 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="n">
         <v>10</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -545,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -554,16 +554,16 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.88</v>
+        <v>0.85</v>
       </c>
       <c r="M2" t="n">
         <v>23</v>
       </c>
       <c r="N2" t="n">
-        <v>11.12</v>
+        <v>10.89</v>
       </c>
       <c r="O2" t="n">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -579,14 +579,14 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -599,7 +599,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -608,39 +608,39 @@
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>10.64</v>
+        <v>10.81</v>
       </c>
       <c r="O3" t="n">
-        <v>266</v>
+        <v>281</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Daniele Miccoli</t>
+          <t>Cameron McAinsh</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>118</v>
+        <v>203</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -662,39 +662,39 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>3.44</v>
+        <v>1.8</v>
       </c>
       <c r="M4" t="n">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>14</v>
+        <v>10.52</v>
       </c>
       <c r="O4" t="n">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="P4" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Cameron McAinsh</t>
+          <t>Daniele Miccoli</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -716,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>1.83</v>
+        <v>3.26</v>
       </c>
       <c r="M5" t="n">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="N5" t="n">
-        <v>10.21</v>
+        <v>13.53</v>
       </c>
       <c r="O5" t="n">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="P5" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="6">
@@ -738,17 +738,17 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="F6" t="n">
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -773,86 +773,86 @@
         <v>2.17</v>
       </c>
       <c r="M6" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N6" t="n">
-        <v>10.35</v>
+        <v>10.71</v>
       </c>
       <c r="O6" t="n">
-        <v>238</v>
+        <v>257</v>
       </c>
       <c r="P6" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Giovanni Aiello</t>
+          <t>Sergio</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
         <v>12</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.64</v>
+        <v>0.86</v>
       </c>
       <c r="M7" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N7" t="n">
-        <v>10.32</v>
+        <v>11.48</v>
       </c>
       <c r="O7" t="n">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="P7" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sergio</t>
+          <t>Giovanni Aiello</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -863,34 +863,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>0.75</v>
+        <v>0.64</v>
       </c>
       <c r="M8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N8" t="n">
-        <v>10.85</v>
+        <v>10.32</v>
       </c>
       <c r="O8" t="n">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="P8" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9">
@@ -950,21 +950,21 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Roby (Cri)</t>
+          <t>Federico Paolucci</t>
         </is>
       </c>
       <c r="B10" t="n">
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -977,34 +977,34 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" t="n">
-        <v>0.68</v>
+        <v>0.25</v>
       </c>
       <c r="M10" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>9.58</v>
+        <v>9.25</v>
       </c>
       <c r="O10" t="n">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="P10" t="n">
-        <v>2</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Federico Paolucci</t>
+          <t>Roby (Cri)</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1014,11 +1014,11 @@
         <v>19</v>
       </c>
       <c r="D11" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>32%</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1031,25 +1031,25 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>0.26</v>
+        <v>0.68</v>
       </c>
       <c r="M11" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="N11" t="n">
-        <v>9.470000000000001</v>
+        <v>9.58</v>
       </c>
       <c r="O11" t="n">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="P11" t="n">
         <v>2</v>
@@ -1220,55 +1220,55 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Francesco</t>
+          <t>Tito</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D15" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>96</v>
+        <v>74</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0.17</v>
+        <v>1.1</v>
       </c>
       <c r="M15" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N15" t="n">
-        <v>9.58</v>
+        <v>12.7</v>
       </c>
       <c r="O15" t="n">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="P15" t="n">
-        <v>3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="16">
@@ -1281,14 +1281,14 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
         <v>6</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1301,133 +1301,133 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="M16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N16" t="n">
-        <v>10.8</v>
+        <v>10.64</v>
       </c>
       <c r="O16" t="n">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="P16" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tito</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>71</v>
+        <v>96</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.89</v>
+        <v>0.17</v>
       </c>
       <c r="M17" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>11.89</v>
+        <v>9.58</v>
       </c>
       <c r="O17" t="n">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="P17" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cri Diaz Lopez</t>
+          <t>Jacopo</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D18" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>38%</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1</v>
+        <v>1.15</v>
       </c>
       <c r="M18" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N18" t="n">
-        <v>9.550000000000001</v>
+        <v>8.539999999999999</v>
       </c>
       <c r="O18" t="n">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -1436,75 +1436,75 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Riccardo Ricci</t>
+          <t>Robi (Stoppi)</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D19" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.7</v>
+        <v>0.33</v>
       </c>
       <c r="M19" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="N19" t="n">
-        <v>10.5</v>
+        <v>12.11</v>
       </c>
       <c r="O19" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P19" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Matteo (Riccardo)</t>
+          <t>Cri Diaz Lopez</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D20" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>27%</t>
         </is>
       </c>
       <c r="F20" t="n">
@@ -1514,139 +1514,139 @@
         <v>2</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="n">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="J20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20" t="n">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N20" t="n">
-        <v>15</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="O20" t="n">
         <v>105</v>
       </c>
       <c r="P20" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Jacopo</t>
+          <t>Riccardo Ricci</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C21" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D21" t="n">
         <v>5</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>1.17</v>
+        <v>0.7</v>
       </c>
       <c r="M21" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="N21" t="n">
-        <v>8.75</v>
+        <v>10.5</v>
       </c>
       <c r="O21" t="n">
         <v>105</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Robi (Stoppi)</t>
+          <t>Matteo (Riccardo)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>75%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>0.38</v>
+        <v>1.71</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N22" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O22" t="n">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23">
@@ -1713,14 +1713,14 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D24" t="n">
         <v>6</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>86%</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1742,16 +1742,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N24" t="n">
-        <v>13.17</v>
+        <v>12.14</v>
       </c>
       <c r="O24" t="n">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -1922,7 +1922,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Pedro</t>
+          <t>Wissam Rahal</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -1949,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -1958,10 +1958,10 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="M28" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N28" t="n">
         <v>15</v>
@@ -1970,27 +1970,27 @@
         <v>60</v>
       </c>
       <c r="P28" t="n">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Guido (Sergio)</t>
+          <t>Pedro</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>75%</t>
         </is>
       </c>
       <c r="F29" t="n">
@@ -2003,48 +2003,48 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0.2</v>
+        <v>1.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N29" t="n">
-        <v>11.4</v>
+        <v>15</v>
       </c>
       <c r="O29" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="P29" t="n">
-        <v>-1</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Wissam Rahal</t>
+          <t>Guido (Sergio)</t>
         </is>
       </c>
       <c r="B30" t="n">
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>2</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="F30" t="n">
@@ -2057,28 +2057,28 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N30" t="n">
-        <v>14.67</v>
+        <v>11.4</v>
       </c>
       <c r="O30" t="n">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31">
@@ -2192,7 +2192,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Gianluca</t>
+          <t>Matteo Virg</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -2202,24 +2202,24 @@
         <v>3</v>
       </c>
       <c r="D33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F33" t="n">
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2228,10 +2228,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="M33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N33" t="n">
         <v>12.33</v>
@@ -2240,13 +2240,13 @@
         <v>37</v>
       </c>
       <c r="P33" t="n">
-        <v>-7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Matteo Virg</t>
+          <t>Gianluca</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -2256,24 +2256,24 @@
         <v>3</v>
       </c>
       <c r="D34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2282,10 +2282,10 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="M34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N34" t="n">
         <v>12.33</v>
@@ -2294,7 +2294,7 @@
         <v>37</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="35">
@@ -2516,34 +2516,34 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Alessandro Gibertini</t>
+          <t>Coco' (Stoppi)</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2552,52 +2552,52 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>9.33</v>
+        <v>14</v>
       </c>
       <c r="O39" t="n">
         <v>28</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Coco' (Stoppi)</t>
+          <t>Alessandro Gibertini</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
-        <v>14</v>
+        <v>9.33</v>
       </c>
       <c r="O40" t="n">
         <v>28</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2894,75 +2894,75 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Andrea DeGa</t>
+          <t>Stefano (Cava)</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46" t="n">
+        <v>1</v>
+      </c>
+      <c r="D46" t="n">
+        <v>1</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
         <v>3</v>
       </c>
-      <c r="D46" t="n">
-        <v>0</v>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
-        <v>0</v>
-      </c>
-      <c r="G46" t="n">
-        <v>0</v>
-      </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>16</v>
-      </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N46" t="n">
-        <v>6.33</v>
+        <v>20</v>
       </c>
       <c r="O46" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P46" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Gianpiero</t>
+          <t>Andrea DeGa</t>
         </is>
       </c>
       <c r="B47" t="n">
         <v>46</v>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F47" t="n">
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2990,19 +2990,19 @@
         <v>0</v>
       </c>
       <c r="N47" t="n">
-        <v>9</v>
+        <v>6.33</v>
       </c>
       <c r="O47" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P47" t="n">
-        <v>8</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ale (Mazzu)</t>
+          <t>Gianpiero</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -3044,33 +3044,33 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O48" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P48" t="n">
-        <v>-7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Eugenio Gibertini</t>
+          <t>Ale (Mazzu)</t>
         </is>
       </c>
       <c r="B49" t="n">
         <v>48</v>
       </c>
       <c r="C49" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>1</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F49" t="n">
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -3092,25 +3092,25 @@
         <v>0</v>
       </c>
       <c r="L49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>16</v>
+        <v>8.5</v>
       </c>
       <c r="O49" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P49" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Giacomo (Stoppi)</t>
+          <t>Eugenio Gibertini</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -3152,10 +3152,10 @@
         <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O50" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
@@ -3168,7 +3168,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51" t="n">
         <v>1</v>
@@ -3218,11 +3218,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Amico Gio</t>
+          <t>Giacomo (Stoppi)</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -3254,16 +3254,16 @@
         <v>0</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O52" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ingra</t>
+          <t>Amico Gio</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="N53" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O53" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3326,7 +3326,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Gio (Matteo)</t>
+          <t>Ingra</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J54" t="n">
         <v>0</v>
@@ -3362,16 +3362,16 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3380,7 +3380,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Fabio (Gianluca)</t>
+          <t>Gio (Matteo)</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3422,10 +3422,10 @@
         <v>1</v>
       </c>
       <c r="N55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -3434,21 +3434,21 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Terni (Damiano)</t>
+          <t>Fabio (Gianluca)</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C56" t="n">
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F56" t="n">
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -3470,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56" t="n">
         <v>11</v>
@@ -3488,21 +3488,21 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Jacopo (Gianluca)</t>
+          <t>Terni (Damiano)</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3524,10 +3524,10 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N57" t="n">
         <v>11</v>
@@ -3542,34 +3542,34 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Rudy Vitiello</t>
+          <t>Jacopo (Gianluca)</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F58" t="n">
         <v>0</v>
       </c>
       <c r="G58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -3584,10 +3584,10 @@
         <v>1</v>
       </c>
       <c r="N58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O58" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P58" t="n">
         <v>0</v>
@@ -3596,7 +3596,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Rocco</t>
+          <t>Rudy Vitiello</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -3617,31 +3617,31 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
+        <v>18</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1</v>
+      </c>
+      <c r="N59" t="n">
         <v>10</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
-      </c>
-      <c r="L59" t="n">
-        <v>2</v>
-      </c>
-      <c r="M59" t="n">
-        <v>2</v>
-      </c>
-      <c r="N59" t="n">
-        <v>7</v>
-      </c>
       <c r="O59" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -3708,7 +3708,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -3758,11 +3758,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Puddi</t>
+          <t>Rocco</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N62" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O62" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -3812,11 +3812,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Dario (Francesco)</t>
+          <t>Puddi</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -3848,10 +3848,10 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63" t="n">
         <v>6</v>
@@ -3866,11 +3866,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Amico Matteo</t>
+          <t>Dario (Francesco)</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -3902,10 +3902,10 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N64" t="n">
         <v>6</v>
@@ -3920,11 +3920,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Fabio (Mario)</t>
+          <t>Amico Matteo</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -3947,25 +3947,25 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
+        <v>8</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>0</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
         <v>6</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>0</v>
-      </c>
-      <c r="M65" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" t="n">
-        <v>5</v>
-      </c>
       <c r="O65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P65" t="n">
         <v>0</v>
@@ -3974,11 +3974,11 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Braz</t>
+          <t>Fabio (Mario)</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J66" t="n">
         <v>0</v>
@@ -4028,11 +4028,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Ale (Fabri)</t>
+          <t>Braz</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -4082,54 +4082,108 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>Ale (Fabri)</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>65</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F68" t="n">
+        <v>0</v>
+      </c>
+      <c r="G68" t="n">
+        <v>0</v>
+      </c>
+      <c r="H68" t="n">
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>10</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
+        <v>5</v>
+      </c>
+      <c r="O68" t="n">
+        <v>5</v>
+      </c>
+      <c r="P68" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
           <t>Carlo Tempesta</t>
         </is>
       </c>
-      <c r="B68" t="n">
-        <v>67</v>
-      </c>
-      <c r="C68" t="n">
-        <v>1</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
-      </c>
-      <c r="E68" t="inlineStr">
+      <c r="B69" t="n">
+        <v>68</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="F68" t="n">
-        <v>1</v>
-      </c>
-      <c r="G68" t="n">
-        <v>0</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="n">
+      <c r="F69" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
         <v>18</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" t="n">
-        <v>1</v>
-      </c>
-      <c r="O68" t="n">
-        <v>1</v>
-      </c>
-      <c r="P68" t="n">
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>1</v>
+      </c>
+      <c r="O69" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/total_Milano.xlsx
+++ b/Excel/Milano/total_Milano.xlsx
@@ -525,14 +525,14 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>37%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -545,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -554,16 +554,16 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.85</v>
+        <v>0.82</v>
       </c>
       <c r="M2" t="n">
         <v>23</v>
       </c>
       <c r="N2" t="n">
-        <v>10.89</v>
+        <v>10.93</v>
       </c>
       <c r="O2" t="n">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -579,14 +579,14 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>54%</t>
+          <t>56%</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -599,7 +599,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -614,10 +614,10 @@
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>10.81</v>
+        <v>10.85</v>
       </c>
       <c r="O3" t="n">
-        <v>281</v>
+        <v>293</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -633,14 +633,14 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="n">
         <v>11</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -662,127 +662,127 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="M4" t="n">
         <v>45</v>
       </c>
       <c r="N4" t="n">
-        <v>10.52</v>
+        <v>10.31</v>
       </c>
       <c r="O4" t="n">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Daniele Miccoli</t>
+          <t>Damiano Barbanera</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>36%</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>3.26</v>
+        <v>2.16</v>
       </c>
       <c r="M5" t="n">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="N5" t="n">
-        <v>13.53</v>
+        <v>10.56</v>
       </c>
       <c r="O5" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P5" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Damiano Barbanera</t>
+          <t>Daniele Miccoli</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>183</v>
+        <v>130</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>2.17</v>
+        <v>3.26</v>
       </c>
       <c r="M6" t="n">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="N6" t="n">
-        <v>10.71</v>
+        <v>13.53</v>
       </c>
       <c r="O6" t="n">
         <v>257</v>
       </c>
       <c r="P6" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="7">
@@ -795,14 +795,14 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
@@ -824,19 +824,19 @@
         <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0.86</v>
+        <v>0.91</v>
       </c>
       <c r="M7" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="N7" t="n">
-        <v>11.48</v>
+        <v>11.5</v>
       </c>
       <c r="O7" t="n">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="P7" t="n">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -957,14 +957,14 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>45%</t>
+          <t>48%</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -977,28 +977,28 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>0.25</v>
+        <v>0.24</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>9.25</v>
+        <v>9.52</v>
       </c>
       <c r="O10" t="n">
-        <v>185</v>
+        <v>200</v>
       </c>
       <c r="P10" t="n">
-        <v>-4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -1011,14 +1011,14 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D11" t="n">
         <v>6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="F11" t="n">
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         <v>2</v>
       </c>
       <c r="L11" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="M11" t="n">
         <v>13</v>
       </c>
       <c r="N11" t="n">
-        <v>9.58</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="O11" t="n">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="12">
@@ -1065,14 +1065,14 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>157</v>
+        <v>165</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1094,19 +1094,19 @@
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
       <c r="M12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N12" t="n">
-        <v>9.210000000000001</v>
+        <v>9.15</v>
       </c>
       <c r="O12" t="n">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="P12" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13">
@@ -1119,14 +1119,14 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D13" t="n">
         <v>7</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>47%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1148,25 +1148,25 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="M13" t="n">
         <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>10</v>
+        <v>9.69</v>
       </c>
       <c r="O13" t="n">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Federico (Damiano)</t>
+          <t>Tito</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -1176,99 +1176,99 @@
         <v>11</v>
       </c>
       <c r="D14" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>64%</t>
         </is>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14" t="n">
-        <v>0.73</v>
+        <v>1.09</v>
       </c>
       <c r="M14" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="N14" t="n">
-        <v>11.82</v>
+        <v>12.82</v>
       </c>
       <c r="O14" t="n">
-        <v>130</v>
+        <v>141</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Tito</t>
+          <t>Federico (Damiano)</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="n">
         <v>6</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>60%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>1.1</v>
+        <v>0.73</v>
       </c>
       <c r="M15" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N15" t="n">
-        <v>12.7</v>
+        <v>11.82</v>
       </c>
       <c r="O15" t="n">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="P15" t="n">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1281,14 +1281,14 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D16" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1301,7 +1301,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="J16" t="n">
         <v>1</v>
@@ -1310,232 +1310,232 @@
         <v>1</v>
       </c>
       <c r="L16" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="M16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N16" t="n">
-        <v>10.64</v>
+        <v>10.67</v>
       </c>
       <c r="O16" t="n">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Francesco</t>
+          <t>Jacopo</t>
         </is>
       </c>
       <c r="B17" t="n">
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.17</v>
+        <v>1.36</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="N17" t="n">
-        <v>9.58</v>
+        <v>8.93</v>
       </c>
       <c r="O17" t="n">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jacopo</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>1.15</v>
+        <v>0.17</v>
       </c>
       <c r="M18" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>8.539999999999999</v>
+        <v>9.58</v>
       </c>
       <c r="O18" t="n">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Robi (Stoppi)</t>
+          <t>Cri Diaz Lopez</t>
         </is>
       </c>
       <c r="B19" t="n">
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>0.33</v>
+        <v>0.92</v>
       </c>
       <c r="M19" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="N19" t="n">
-        <v>12.11</v>
+        <v>9.33</v>
       </c>
       <c r="O19" t="n">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Cri Diaz Lopez</t>
+          <t>Robi (Stoppi)</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
+        <v>6</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>48</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="M20" t="n">
         <v>3</v>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>27%</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>2</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>94</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2</v>
-      </c>
-      <c r="K20" t="n">
-        <v>2</v>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="n">
-        <v>11</v>
-      </c>
       <c r="N20" t="n">
-        <v>9.550000000000001</v>
+        <v>12.11</v>
       </c>
       <c r="O20" t="n">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" t="n">
         <v>10</v>
@@ -1602,7 +1602,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C22" t="n">
         <v>7</v>
@@ -2084,7 +2084,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Ludovico Righi</t>
+          <t>Leo (Cava)</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2094,11 +2094,11 @@
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F31" t="n">
@@ -2111,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2120,93 +2120,93 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="O31" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P31" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Luca SDV</t>
+          <t>Ludovico Righi</t>
         </is>
       </c>
       <c r="B32" t="n">
         <v>31</v>
       </c>
       <c r="C32" t="n">
+        <v>4</v>
+      </c>
+      <c r="D32" t="n">
+        <v>1</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>20</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="O32" t="n">
+        <v>41</v>
+      </c>
+      <c r="P32" t="n">
         <v>5</v>
-      </c>
-      <c r="D32" t="n">
-        <v>2</v>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>40%</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
-        <v>0</v>
-      </c>
-      <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>52</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M32" t="n">
-        <v>4</v>
-      </c>
-      <c r="N32" t="n">
-        <v>8</v>
-      </c>
-      <c r="O32" t="n">
-        <v>40</v>
-      </c>
-      <c r="P32" t="n">
-        <v>-1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Matteo Virg</t>
+          <t>Luca SDV</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="F33" t="n">
@@ -2216,10 +2216,10 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -2228,19 +2228,19 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="M33" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N33" t="n">
-        <v>12.33</v>
+        <v>8</v>
       </c>
       <c r="O33" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="34">
@@ -2250,7 +2250,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" t="n">
         <v>3</v>
@@ -2300,21 +2300,21 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Matteo Virg</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F35" t="n">
@@ -2327,7 +2327,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2336,39 +2336,39 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35" t="n">
-        <v>7</v>
+        <v>12.33</v>
       </c>
       <c r="O35" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Davide Ang</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F36" t="n">
@@ -2381,7 +2381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2390,39 +2390,39 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N36" t="n">
-        <v>11.67</v>
+        <v>7</v>
       </c>
       <c r="O36" t="n">
         <v>35</v>
       </c>
       <c r="P36" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Leo (Cava)</t>
+          <t>Davide Ang</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C37" t="n">
         <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -2450,13 +2450,13 @@
         <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>10.67</v>
+        <v>11.67</v>
       </c>
       <c r="O37" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
@@ -2516,34 +2516,34 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Coco' (Stoppi)</t>
+          <t>Alessandro Gibertini</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2552,52 +2552,52 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>14</v>
+        <v>9.33</v>
       </c>
       <c r="O39" t="n">
         <v>28</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Alessandro Gibertini</t>
+          <t>Coco' (Stoppi)</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2606,25 +2606,25 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>9.33</v>
+        <v>14</v>
       </c>
       <c r="O40" t="n">
         <v>28</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Ale Guati</t>
+          <t>Stefano (Cava)</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -2651,7 +2651,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J41" t="n">
         <v>1</v>
@@ -2660,19 +2660,19 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N41" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="O41" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="42">
@@ -2682,7 +2682,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" t="n">
         <v>3</v>
@@ -2732,21 +2732,21 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Ale Guati</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2759,48 +2759,48 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43" t="n">
-        <v>7.67</v>
+        <v>13</v>
       </c>
       <c r="O43" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P43" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Fede Lelli</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="B44" t="n">
         <v>43</v>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2822,39 +2822,39 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>11</v>
+        <v>7.67</v>
       </c>
       <c r="O44" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P44" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Marco Taglio</t>
+          <t>Fede Lelli</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2879,36 +2879,36 @@
         <v>1</v>
       </c>
       <c r="M45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N45" t="n">
-        <v>6.67</v>
+        <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Stefano (Cava)</t>
+          <t>Marco Taglio</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2921,22 +2921,22 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
+        <v>40</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
         <v>3</v>
       </c>
-      <c r="J46" t="n">
-        <v>1</v>
-      </c>
-      <c r="K46" t="n">
-        <v>0</v>
-      </c>
-      <c r="L46" t="n">
-        <v>2</v>
-      </c>
-      <c r="M46" t="n">
-        <v>2</v>
-      </c>
       <c r="N46" t="n">
-        <v>20</v>
+        <v>6.67</v>
       </c>
       <c r="O46" t="n">
         <v>20</v>
@@ -3164,7 +3164,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Matteo (Mazzu)</t>
+          <t>Giacomo (Stoppi)</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -3218,7 +3218,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Giacomo (Stoppi)</t>
+          <t>Matteo (Mazzu)</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -3380,21 +3380,21 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Gio (Matteo)</t>
+          <t>Rocco</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C55" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3416,25 +3416,25 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N55" t="n">
-        <v>12</v>
+        <v>6.5</v>
       </c>
       <c r="O55" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P55" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Fabio (Gianluca)</t>
+          <t>Gio (Matteo)</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -3476,10 +3476,10 @@
         <v>1</v>
       </c>
       <c r="N56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O56" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -3488,21 +3488,21 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Terni (Damiano)</t>
+          <t>Jacopo (Gianluca)</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C57" t="n">
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F57" t="n">
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3524,10 +3524,10 @@
         <v>0</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57" t="n">
         <v>11</v>
@@ -3542,11 +3542,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Jacopo (Gianluca)</t>
+          <t>Fabio (Gianluca)</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -3596,11 +3596,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Rudy Vitiello</t>
+          <t>Terni (Damiano)</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -3617,13 +3617,13 @@
         <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -3632,16 +3632,16 @@
         <v>0</v>
       </c>
       <c r="L59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P59" t="n">
         <v>0</v>
@@ -3650,7 +3650,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Zen</t>
+          <t>Rudy Vitiello</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -3671,13 +3671,13 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3686,16 +3686,16 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O60" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -3704,11 +3704,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Robi Muu</t>
+          <t>Zen</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -3731,7 +3731,7 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -3740,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N61" t="n">
         <v>7</v>
@@ -3758,11 +3758,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Rocco</t>
+          <t>Robi Muu</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N62" t="n">
         <v>7</v>

--- a/Excel/Milano/total_Milano.xlsx
+++ b/Excel/Milano/total_Milano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P69"/>
+  <dimension ref="A1:P71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,14 +525,14 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>39%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -545,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -554,16 +554,16 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="M2" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N2" t="n">
         <v>10.93</v>
       </c>
       <c r="O2" t="n">
-        <v>306</v>
+        <v>317</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -579,14 +579,14 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -599,7 +599,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -608,16 +608,16 @@
         <v>2</v>
       </c>
       <c r="L3" t="n">
-        <v>0.15</v>
+        <v>0.14</v>
       </c>
       <c r="M3" t="n">
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>10.85</v>
+        <v>10.82</v>
       </c>
       <c r="O3" t="n">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -633,14 +633,14 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="n">
         <v>11</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="F4" t="n">
@@ -653,7 +653,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -662,16 +662,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="M4" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N4" t="n">
-        <v>10.31</v>
+        <v>10.19</v>
       </c>
       <c r="O4" t="n">
-        <v>268</v>
+        <v>275</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -687,14 +687,14 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="n">
         <v>9</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36%</t>
+          <t>35%</t>
         </is>
       </c>
       <c r="F5" t="n">
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -716,16 +716,16 @@
         <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>2.16</v>
+        <v>2.12</v>
       </c>
       <c r="M5" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N5" t="n">
-        <v>10.56</v>
+        <v>10.38</v>
       </c>
       <c r="O5" t="n">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -734,109 +734,109 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Daniele Miccoli</t>
+          <t>Sergio</t>
         </is>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>61%</t>
         </is>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" t="n">
-        <v>3.26</v>
+        <v>0.91</v>
       </c>
       <c r="M6" t="n">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="N6" t="n">
-        <v>13.53</v>
+        <v>11.61</v>
       </c>
       <c r="O6" t="n">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="P6" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sergio</t>
+          <t>Daniele Miccoli</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>59%</t>
+          <t>63%</t>
         </is>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="J7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.91</v>
+        <v>3.26</v>
       </c>
       <c r="M7" t="n">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="N7" t="n">
-        <v>11.5</v>
+        <v>13.53</v>
       </c>
       <c r="O7" t="n">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="P7" t="n">
-        <v>1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="8">
@@ -903,14 +903,14 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>38%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="F9" t="n">
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="J9" t="n">
         <v>1</v>
@@ -932,19 +932,19 @@
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.12</v>
+        <v>3.24</v>
       </c>
       <c r="M9" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="N9" t="n">
-        <v>12.81</v>
+        <v>12.88</v>
       </c>
       <c r="O9" t="n">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="10">
@@ -957,14 +957,14 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>48%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -986,19 +986,19 @@
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>9.52</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="P10" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11">
@@ -1065,14 +1065,14 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>29%</t>
         </is>
       </c>
       <c r="F12" t="n">
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="J12" t="n">
         <v>1</v>
@@ -1094,19 +1094,19 @@
         <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0.55</v>
+        <v>0.52</v>
       </c>
       <c r="M12" t="n">
         <v>11</v>
       </c>
       <c r="N12" t="n">
-        <v>9.15</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="P12" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1173,14 +1173,14 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
         <v>7</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="F14" t="n">
@@ -1193,28 +1193,28 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="J14" t="n">
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="M14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N14" t="n">
-        <v>12.82</v>
+        <v>12.5</v>
       </c>
       <c r="O14" t="n">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="P14" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -1382,21 +1382,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Francesco</t>
+          <t>Cri Diaz Lopez</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D18" t="n">
         <v>3</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>23%</t>
         </is>
       </c>
       <c r="F18" t="n">
@@ -1406,28 +1406,28 @@
         <v>2</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="n">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="J18" t="n">
         <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L18" t="n">
-        <v>0.17</v>
+        <v>0.85</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N18" t="n">
-        <v>9.58</v>
+        <v>9.08</v>
       </c>
       <c r="O18" t="n">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="P18" t="n">
         <v>3</v>
@@ -1436,7 +1436,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Cri Diaz Lopez</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1460,31 +1460,31 @@
         <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="M19" t="n">
         <v>2</v>
       </c>
-      <c r="L19" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="M19" t="n">
-        <v>11</v>
-      </c>
       <c r="N19" t="n">
-        <v>9.33</v>
+        <v>9.58</v>
       </c>
       <c r="O19" t="n">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="P19" t="n">
-        <v>-4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
@@ -1713,14 +1713,14 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
+        <v>8</v>
+      </c>
+      <c r="D24" t="n">
         <v>7</v>
       </c>
-      <c r="D24" t="n">
-        <v>6</v>
-      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>86%</t>
+          <t>88%</t>
         </is>
       </c>
       <c r="F24" t="n">
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -1742,19 +1742,19 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="M24" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="N24" t="n">
-        <v>12.14</v>
+        <v>12</v>
       </c>
       <c r="O24" t="n">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -2084,7 +2084,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Leo (Cava)</t>
+          <t>Gianluca</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -2094,51 +2094,51 @@
         <v>4</v>
       </c>
       <c r="D31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0.25</v>
+        <v>1.25</v>
       </c>
       <c r="M31" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O31" t="n">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="P31" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ludovico Righi</t>
+          <t>Leo (Cava)</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -2148,11 +2148,11 @@
         <v>4</v>
       </c>
       <c r="D32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F32" t="n">
@@ -2165,7 +2165,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -2174,106 +2174,106 @@
         <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N32" t="n">
-        <v>10.25</v>
+        <v>11</v>
       </c>
       <c r="O32" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="P32" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Luca SDV</t>
+          <t>Ludovico Righi</t>
         </is>
       </c>
       <c r="B33" t="n">
         <v>32</v>
       </c>
       <c r="C33" t="n">
+        <v>4</v>
+      </c>
+      <c r="D33" t="n">
+        <v>1</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>25%</t>
+        </is>
+      </c>
+      <c r="F33" t="n">
+        <v>0</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>20</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>10.25</v>
+      </c>
+      <c r="O33" t="n">
+        <v>41</v>
+      </c>
+      <c r="P33" t="n">
         <v>5</v>
-      </c>
-      <c r="D33" t="n">
-        <v>2</v>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>40%</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>0</v>
-      </c>
-      <c r="G33" t="n">
-        <v>0</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>52</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="M33" t="n">
-        <v>4</v>
-      </c>
-      <c r="N33" t="n">
-        <v>8</v>
-      </c>
-      <c r="O33" t="n">
-        <v>40</v>
-      </c>
-      <c r="P33" t="n">
-        <v>-1</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Gianluca</t>
+          <t>Luca SDV</t>
         </is>
       </c>
       <c r="B34" t="n">
         <v>33</v>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -2282,19 +2282,19 @@
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1.67</v>
+        <v>0.8</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="n">
-        <v>12.33</v>
+        <v>8</v>
       </c>
       <c r="O34" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="P34" t="n">
-        <v>-7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="35">
@@ -2304,7 +2304,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" t="n">
         <v>3</v>
@@ -2354,34 +2354,34 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Mario Croce</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>1</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2390,16 +2390,16 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0.8</v>
+        <v>2.25</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N36" t="n">
-        <v>7</v>
+        <v>9.25</v>
       </c>
       <c r="O36" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -2408,21 +2408,21 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Davide Ang</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -2444,52 +2444,52 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="M37" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N37" t="n">
-        <v>11.67</v>
+        <v>7</v>
       </c>
       <c r="O37" t="n">
         <v>35</v>
       </c>
       <c r="P37" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Mario Croce</t>
+          <t>Davide Ang</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C38" t="n">
         <v>3</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2498,52 +2498,52 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>2.33</v>
+        <v>0.33</v>
       </c>
       <c r="M38" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>11.67</v>
       </c>
       <c r="O38" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Alessandro Gibertini</t>
+          <t>Coco' (Stoppi)</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2552,52 +2552,52 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>9.33</v>
+        <v>14</v>
       </c>
       <c r="O39" t="n">
         <v>28</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Coco' (Stoppi)</t>
+          <t>Alessandro Gibertini</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="M40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N40" t="n">
-        <v>14</v>
+        <v>9.33</v>
       </c>
       <c r="O40" t="n">
         <v>28</v>
       </c>
       <c r="P40" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -2678,21 +2678,21 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Andrea Scalambra</t>
+          <t>Ale Guati</t>
         </is>
       </c>
       <c r="B42" t="n">
         <v>41</v>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F42" t="n">
@@ -2705,48 +2705,48 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="M42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N42" t="n">
-        <v>8.67</v>
+        <v>13</v>
       </c>
       <c r="O42" t="n">
         <v>26</v>
       </c>
       <c r="P42" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Ale Guati</t>
+          <t>Andrea Scalambra</t>
         </is>
       </c>
       <c r="B43" t="n">
         <v>41</v>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>1</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F43" t="n">
@@ -2759,28 +2759,28 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N43" t="n">
-        <v>13</v>
+        <v>8.67</v>
       </c>
       <c r="O43" t="n">
         <v>26</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44">
@@ -2948,11 +2948,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Andrea DeGa</t>
+          <t>Rocco</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47" t="n">
         <v>3</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2984,39 +2984,39 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N47" t="n">
-        <v>6.33</v>
+        <v>6.67</v>
       </c>
       <c r="O47" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P47" t="n">
-        <v>-5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Gianpiero</t>
+          <t>Andrea DeGa</t>
         </is>
       </c>
       <c r="B48" t="n">
         <v>47</v>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F48" t="n">
@@ -3029,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -3044,19 +3044,19 @@
         <v>0</v>
       </c>
       <c r="N48" t="n">
-        <v>9</v>
+        <v>6.33</v>
       </c>
       <c r="O48" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P48" t="n">
-        <v>8</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Ale (Mazzu)</t>
+          <t>Gianpiero</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -3083,7 +3083,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -3098,33 +3098,33 @@
         <v>0</v>
       </c>
       <c r="N49" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O49" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P49" t="n">
-        <v>-7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Eugenio Gibertini</t>
+          <t>Ale (Mazzu)</t>
         </is>
       </c>
       <c r="B50" t="n">
         <v>49</v>
       </c>
       <c r="C50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -3137,7 +3137,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -3146,25 +3146,25 @@
         <v>0</v>
       </c>
       <c r="L50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
-        <v>16</v>
+        <v>8.5</v>
       </c>
       <c r="O50" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Giacomo (Stoppi)</t>
+          <t>Eugenio Gibertini</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -3206,10 +3206,10 @@
         <v>1</v>
       </c>
       <c r="N51" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O51" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P51" t="n">
         <v>0</v>
@@ -3218,11 +3218,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Matteo (Mazzu)</t>
+          <t>Giacomo (Stoppi)</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C52" t="n">
         <v>1</v>
@@ -3245,7 +3245,7 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J52" t="n">
         <v>0</v>
@@ -3272,11 +3272,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Amico Gio</t>
+          <t>Matteo (Mazzu)</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -3299,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J53" t="n">
         <v>0</v>
@@ -3308,16 +3308,16 @@
         <v>0</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N53" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O53" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P53" t="n">
         <v>0</v>
@@ -3326,7 +3326,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Ingra</t>
+          <t>Amico Gio</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -3368,10 +3368,10 @@
         <v>0</v>
       </c>
       <c r="N54" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O54" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3380,21 +3380,21 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Rocco</t>
+          <t>Ingra</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F55" t="n">
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J55" t="n">
         <v>0</v>
@@ -3416,19 +3416,19 @@
         <v>0</v>
       </c>
       <c r="L55" t="n">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>6.5</v>
+        <v>13</v>
       </c>
       <c r="O55" t="n">
         <v>13</v>
       </c>
       <c r="P55" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
@@ -3650,7 +3650,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Rudy Vitiello</t>
+          <t>Mirko (Cava)</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -3660,24 +3660,24 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F60" t="n">
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -3686,10 +3686,10 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60" t="n">
         <v>10</v>
@@ -3704,11 +3704,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Zen</t>
+          <t>Rudy Vitiello</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
@@ -3725,13 +3725,13 @@
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -3740,16 +3740,16 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N61" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O61" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P61" t="n">
         <v>0</v>
@@ -3758,11 +3758,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Robi Muu</t>
+          <t>Zen</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -3785,7 +3785,7 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3794,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N62" t="n">
         <v>7</v>
@@ -3812,11 +3812,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Puddi</t>
+          <t>Robi Muu</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -3854,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="N63" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O63" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P63" t="n">
         <v>0</v>
@@ -3866,11 +3866,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Dario (Francesco)</t>
+          <t>Puddi</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -3902,10 +3902,10 @@
         <v>0</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64" t="n">
         <v>6</v>
@@ -3920,11 +3920,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Amico Matteo</t>
+          <t>Dario (Francesco)</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -3947,7 +3947,7 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J65" t="n">
         <v>0</v>
@@ -3956,10 +3956,10 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65" t="n">
         <v>6</v>
@@ -3974,11 +3974,11 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Fabio (Mario)</t>
+          <t>Claudio</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -4001,25 +4001,25 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
+        <v>9</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>0</v>
+      </c>
+      <c r="M66" t="n">
+        <v>0</v>
+      </c>
+      <c r="N66" t="n">
         <v>6</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>0</v>
-      </c>
-      <c r="M66" t="n">
-        <v>0</v>
-      </c>
-      <c r="N66" t="n">
-        <v>5</v>
-      </c>
       <c r="O66" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P66" t="n">
         <v>0</v>
@@ -4028,11 +4028,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Braz</t>
+          <t>Amico Matteo</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -4070,10 +4070,10 @@
         <v>0</v>
       </c>
       <c r="N67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O67" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P67" t="n">
         <v>0</v>
@@ -4082,11 +4082,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Ale (Fabri)</t>
+          <t>Fabio (Mario)</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -4109,7 +4109,7 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="J68" t="n">
         <v>0</v>
@@ -4136,54 +4136,162 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
+          <t>Braz</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>67</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F69" t="n">
+        <v>0</v>
+      </c>
+      <c r="G69" t="n">
+        <v>0</v>
+      </c>
+      <c r="H69" t="n">
+        <v>0</v>
+      </c>
+      <c r="I69" t="n">
+        <v>11</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>5</v>
+      </c>
+      <c r="O69" t="n">
+        <v>5</v>
+      </c>
+      <c r="P69" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Ale (Fabri)</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>67</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F70" t="n">
+        <v>0</v>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>0</v>
+      </c>
+      <c r="I70" t="n">
+        <v>10</v>
+      </c>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>0</v>
+      </c>
+      <c r="N70" t="n">
+        <v>5</v>
+      </c>
+      <c r="O70" t="n">
+        <v>5</v>
+      </c>
+      <c r="P70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
           <t>Carlo Tempesta</t>
         </is>
       </c>
-      <c r="B69" t="n">
-        <v>68</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
-      </c>
-      <c r="E69" t="inlineStr">
+      <c r="B71" t="n">
+        <v>70</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="F69" t="n">
-        <v>1</v>
-      </c>
-      <c r="G69" t="n">
-        <v>0</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
+      <c r="F71" t="n">
+        <v>1</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
         <v>18</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>0</v>
-      </c>
-      <c r="M69" t="n">
-        <v>0</v>
-      </c>
-      <c r="N69" t="n">
-        <v>1</v>
-      </c>
-      <c r="O69" t="n">
-        <v>1</v>
-      </c>
-      <c r="P69" t="n">
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>1</v>
+      </c>
+      <c r="O71" t="n">
+        <v>1</v>
+      </c>
+      <c r="P71" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/total_Milano.xlsx
+++ b/Excel/Milano/total_Milano.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P71"/>
+  <dimension ref="A1:P72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,14 +525,14 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>43%</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -545,7 +545,7 @@
         <v>2</v>
       </c>
       <c r="I2" t="n">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="J2" t="n">
         <v>3</v>
@@ -554,16 +554,16 @@
         <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>0.83</v>
+        <v>0.87</v>
       </c>
       <c r="M2" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N2" t="n">
-        <v>10.93</v>
+        <v>11.1</v>
       </c>
       <c r="O2" t="n">
-        <v>317</v>
+        <v>333</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -579,14 +579,14 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>57%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -599,7 +599,7 @@
         <v>2</v>
       </c>
       <c r="I3" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -614,10 +614,10 @@
         <v>4</v>
       </c>
       <c r="N3" t="n">
-        <v>10.82</v>
+        <v>10.93</v>
       </c>
       <c r="O3" t="n">
-        <v>303</v>
+        <v>317</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -626,7 +626,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Cameron McAinsh</t>
+          <t>Damiano Barbanera</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -636,99 +636,99 @@
         <v>27</v>
       </c>
       <c r="D4" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>37%</t>
         </is>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
-        <v>1.7</v>
+        <v>2.15</v>
       </c>
       <c r="M4" t="n">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="N4" t="n">
-        <v>10.19</v>
+        <v>10.63</v>
       </c>
       <c r="O4" t="n">
-        <v>275</v>
+        <v>287</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Damiano Barbanera</t>
+          <t>Cameron McAinsh</t>
         </is>
       </c>
       <c r="B5" t="n">
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D5" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>39%</t>
         </is>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>2.12</v>
+        <v>1.64</v>
       </c>
       <c r="M5" t="n">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="N5" t="n">
-        <v>10.38</v>
+        <v>10</v>
       </c>
       <c r="O5" t="n">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="6">
@@ -795,14 +795,14 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" t="n">
         <v>12</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>63%</t>
+          <t>60%</t>
         </is>
       </c>
       <c r="F7" t="n">
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -824,127 +824,127 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>3.26</v>
+        <v>3.2</v>
       </c>
       <c r="M7" t="n">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N7" t="n">
-        <v>13.53</v>
+        <v>13.2</v>
       </c>
       <c r="O7" t="n">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="P7" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Giovanni Aiello</t>
+          <t>Mazzu</t>
         </is>
       </c>
       <c r="B8" t="n">
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>44%</t>
         </is>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>153</v>
+        <v>130</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>0.64</v>
+        <v>3.28</v>
       </c>
       <c r="M8" t="n">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="N8" t="n">
-        <v>10.32</v>
+        <v>13.39</v>
       </c>
       <c r="O8" t="n">
-        <v>227</v>
+        <v>241</v>
       </c>
       <c r="P8" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mazzu</t>
+          <t>Giovanni Aiello</t>
         </is>
       </c>
       <c r="B9" t="n">
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D9" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>41%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>126</v>
+        <v>153</v>
       </c>
       <c r="J9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>2</v>
       </c>
       <c r="L9" t="n">
-        <v>3.24</v>
+        <v>0.64</v>
       </c>
       <c r="M9" t="n">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="N9" t="n">
-        <v>12.88</v>
+        <v>10.32</v>
       </c>
       <c r="O9" t="n">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="P9" t="n">
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10">
@@ -957,14 +957,14 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>52%</t>
         </is>
       </c>
       <c r="F10" t="n">
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="J10" t="n">
         <v>1</v>
@@ -986,127 +986,127 @@
         <v>2</v>
       </c>
       <c r="L10" t="n">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="n">
-        <v>9.550000000000001</v>
+        <v>9.74</v>
       </c>
       <c r="O10" t="n">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="P10" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Roby (Cri)</t>
+          <t>Fabrizio Limonta</t>
         </is>
       </c>
       <c r="B11" t="n">
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" t="n">
         <v>6</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>27%</t>
         </is>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>163</v>
+        <v>184</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L11" t="n">
-        <v>0.65</v>
+        <v>0.5</v>
       </c>
       <c r="M11" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N11" t="n">
-        <v>9.449999999999999</v>
+        <v>8.77</v>
       </c>
       <c r="O11" t="n">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="P11" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Fabrizio Limonta</t>
+          <t>Roby (Cri)</t>
         </is>
       </c>
       <c r="B12" t="n">
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" t="n">
         <v>6</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>174</v>
+        <v>163</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12" t="n">
-        <v>0.52</v>
+        <v>0.65</v>
       </c>
       <c r="M12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N12" t="n">
-        <v>8.949999999999999</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="O12" t="n">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="13">
@@ -1119,14 +1119,14 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D13" t="n">
         <v>7</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>44%</t>
+          <t>41%</t>
         </is>
       </c>
       <c r="F13" t="n">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1148,19 +1148,19 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="M13" t="n">
         <v>10</v>
       </c>
       <c r="N13" t="n">
-        <v>9.69</v>
+        <v>9.41</v>
       </c>
       <c r="O13" t="n">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="P13" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1220,21 +1220,21 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Federico (Damiano)</t>
+          <t>Maurizio</t>
         </is>
       </c>
       <c r="B15" t="n">
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>55%</t>
+          <t>54%</t>
         </is>
       </c>
       <c r="F15" t="n">
@@ -1247,48 +1247,48 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="J15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" t="n">
-        <v>0.73</v>
+        <v>1.15</v>
       </c>
       <c r="M15" t="n">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="N15" t="n">
-        <v>11.82</v>
+        <v>10.31</v>
       </c>
       <c r="O15" t="n">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Maurizio</t>
+          <t>Federico (Damiano)</t>
         </is>
       </c>
       <c r="B16" t="n">
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>55%</t>
         </is>
       </c>
       <c r="F16" t="n">
@@ -1301,28 +1301,28 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>1.17</v>
+        <v>0.73</v>
       </c>
       <c r="M16" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="N16" t="n">
-        <v>10.67</v>
+        <v>11.82</v>
       </c>
       <c r="O16" t="n">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P16" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1382,75 +1382,75 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Cri Diaz Lopez</t>
+          <t>Robi (Stoppi)</t>
         </is>
       </c>
       <c r="B18" t="n">
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D18" t="n">
+        <v>7</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70%</t>
+        </is>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>52</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="M18" t="n">
         <v>3</v>
       </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>23%</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>111</v>
-      </c>
-      <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="n">
-        <v>2</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="M18" t="n">
-        <v>11</v>
-      </c>
       <c r="N18" t="n">
-        <v>9.08</v>
+        <v>12.3</v>
       </c>
       <c r="O18" t="n">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="P18" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Francesco</t>
+          <t>Cri Diaz Lopez</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
         <v>3</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>21%</t>
         </is>
       </c>
       <c r="F19" t="n">
@@ -1460,193 +1460,193 @@
         <v>2</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="J19" t="n">
         <v>2</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L19" t="n">
-        <v>0.17</v>
+        <v>0.79</v>
       </c>
       <c r="M19" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N19" t="n">
-        <v>9.58</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="O19" t="n">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="P19" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Robi (Stoppi)</t>
+          <t>Francesco</t>
         </is>
       </c>
       <c r="B20" t="n">
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>48</v>
+        <v>96</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.33</v>
+        <v>0.17</v>
       </c>
       <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>9.58</v>
+      </c>
+      <c r="O20" t="n">
+        <v>115</v>
+      </c>
+      <c r="P20" t="n">
         <v>3</v>
-      </c>
-      <c r="N20" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="O20" t="n">
-        <v>109</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Riccardo Ricci</t>
+          <t>Matteo (Riccardo)</t>
         </is>
       </c>
       <c r="B21" t="n">
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D21" t="n">
         <v>5</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
       </c>
       <c r="L21" t="n">
-        <v>0.7</v>
+        <v>1.71</v>
       </c>
       <c r="M21" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N21" t="n">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="O21" t="n">
         <v>105</v>
       </c>
       <c r="P21" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Matteo (Riccardo)</t>
+          <t>Riccardo Ricci</t>
         </is>
       </c>
       <c r="B22" t="n">
         <v>20</v>
       </c>
       <c r="C22" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D22" t="n">
         <v>5</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="J22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>1</v>
       </c>
       <c r="L22" t="n">
-        <v>1.71</v>
+        <v>0.7</v>
       </c>
       <c r="M22" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="O22" t="n">
         <v>105</v>
       </c>
       <c r="P22" t="n">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="23">
@@ -1767,14 +1767,14 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D25" t="n">
         <v>2</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>18%</t>
         </is>
       </c>
       <c r="F25" t="n">
@@ -1787,28 +1787,28 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="n">
-        <v>6.8</v>
+        <v>6.91</v>
       </c>
       <c r="O25" t="n">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="P25" t="n">
-        <v>-4</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="26">
@@ -2030,7 +2030,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Guido (Sergio)</t>
+          <t>Gianluca</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -2040,24 +2040,24 @@
         <v>5</v>
       </c>
       <c r="D30" t="n">
+        <v>3</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>60%</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
         <v>2</v>
       </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>40%</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>0</v>
-      </c>
-      <c r="G30" t="n">
-        <v>0</v>
-      </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="J30" t="n">
         <v>1</v>
@@ -2066,52 +2066,52 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="M30" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N30" t="n">
-        <v>11.4</v>
+        <v>11.6</v>
       </c>
       <c r="O30" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="P30" t="n">
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Gianluca</t>
+          <t>Guido (Sergio)</t>
         </is>
       </c>
       <c r="B31" t="n">
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>2</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="J31" t="n">
         <v>1</v>
@@ -2120,19 +2120,19 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1.25</v>
+        <v>0.2</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N31" t="n">
-        <v>12</v>
+        <v>11.4</v>
       </c>
       <c r="O31" t="n">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="P31" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32">
@@ -2300,34 +2300,34 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Matteo Virg</t>
+          <t>Mario Croce</t>
         </is>
       </c>
       <c r="B35" t="n">
         <v>34</v>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>25%</t>
         </is>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -2336,52 +2336,52 @@
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="M35" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N35" t="n">
-        <v>12.33</v>
+        <v>9.25</v>
       </c>
       <c r="O35" t="n">
         <v>37</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Mario Croce</t>
+          <t>Matteo Virg</t>
         </is>
       </c>
       <c r="B36" t="n">
         <v>34</v>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>25%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -2390,39 +2390,39 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="M36" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N36" t="n">
-        <v>9.25</v>
+        <v>12.33</v>
       </c>
       <c r="O36" t="n">
         <v>37</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Omar</t>
+          <t>Davide Ang</t>
         </is>
       </c>
       <c r="B37" t="n">
         <v>36</v>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>20%</t>
+          <t>67%</t>
         </is>
       </c>
       <c r="F37" t="n">
@@ -2435,7 +2435,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -2444,39 +2444,39 @@
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N37" t="n">
-        <v>7</v>
+        <v>11.67</v>
       </c>
       <c r="O37" t="n">
         <v>35</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Davide Ang</t>
+          <t>Omar</t>
         </is>
       </c>
       <c r="B38" t="n">
         <v>36</v>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>20%</t>
         </is>
       </c>
       <c r="F38" t="n">
@@ -2489,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -2498,52 +2498,52 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="M38" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N38" t="n">
-        <v>11.67</v>
+        <v>7</v>
       </c>
       <c r="O38" t="n">
         <v>35</v>
       </c>
       <c r="P38" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Coco' (Stoppi)</t>
+          <t>Alessandro Gibertini</t>
         </is>
       </c>
       <c r="B39" t="n">
         <v>38</v>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F39" t="n">
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -2552,52 +2552,52 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N39" t="n">
-        <v>14</v>
+        <v>9.33</v>
       </c>
       <c r="O39" t="n">
         <v>28</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Alessandro Gibertini</t>
+          <t>Coco' (Stoppi)</t>
         </is>
       </c>
       <c r="B40" t="n">
         <v>38</v>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -2606,19 +2606,19 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>9.33</v>
+        <v>14</v>
       </c>
       <c r="O40" t="n">
         <v>28</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41">
@@ -2786,21 +2786,21 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Thomas</t>
+          <t>Rocco</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>33%</t>
+          <t>0%</t>
         </is>
       </c>
       <c r="F44" t="n">
@@ -2813,7 +2813,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -2822,39 +2822,39 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N44" t="n">
-        <v>7.67</v>
+        <v>6.5</v>
       </c>
       <c r="O44" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P44" t="n">
-        <v>-6</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Fede Lelli</t>
+          <t>Thomas</t>
         </is>
       </c>
       <c r="B45" t="n">
         <v>44</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="F45" t="n">
@@ -2867,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -2876,39 +2876,39 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>11</v>
+        <v>7.67</v>
       </c>
       <c r="O45" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P45" t="n">
-        <v>6</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Marco Taglio</t>
+          <t>Fede Lelli</t>
         </is>
       </c>
       <c r="B46" t="n">
         <v>45</v>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F46" t="n">
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -2933,26 +2933,26 @@
         <v>1</v>
       </c>
       <c r="M46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N46" t="n">
-        <v>6.67</v>
+        <v>11</v>
       </c>
       <c r="O46" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Rocco</t>
+          <t>Marco Taglio</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47" t="n">
         <v>3</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -2984,10 +2984,10 @@
         <v>0</v>
       </c>
       <c r="L47" t="n">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N47" t="n">
         <v>6.67</v>
@@ -2996,7 +2996,7 @@
         <v>20</v>
       </c>
       <c r="P47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3110,21 +3110,21 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Ale (Mazzu)</t>
+          <t>Gian Scotti</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>50%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F50" t="n">
@@ -3137,48 +3137,48 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N50" t="n">
-        <v>8.5</v>
+        <v>18</v>
       </c>
       <c r="O50" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P50" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Eugenio Gibertini</t>
+          <t>Ale (Mazzu)</t>
         </is>
       </c>
       <c r="B51" t="n">
         <v>50</v>
       </c>
       <c r="C51" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>1</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>100%</t>
+          <t>50%</t>
         </is>
       </c>
       <c r="F51" t="n">
@@ -3191,7 +3191,7 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J51" t="n">
         <v>0</v>
@@ -3200,25 +3200,25 @@
         <v>0</v>
       </c>
       <c r="L51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
-        <v>16</v>
+        <v>8.5</v>
       </c>
       <c r="O51" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Giacomo (Stoppi)</t>
+          <t>Eugenio Gibertini</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -3260,10 +3260,10 @@
         <v>1</v>
       </c>
       <c r="N52" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O52" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P52" t="n">
         <v>0</v>
@@ -3276,7 +3276,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C53" t="n">
         <v>1</v>
@@ -3326,11 +3326,11 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Amico Gio</t>
+          <t>Giacomo (Stoppi)</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54" t="n">
         <v>1</v>
@@ -3362,16 +3362,16 @@
         <v>0</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N54" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O54" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
@@ -3380,7 +3380,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Ingra</t>
+          <t>Amico Gio</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -3422,10 +3422,10 @@
         <v>0</v>
       </c>
       <c r="N55" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="O55" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="P55" t="n">
         <v>0</v>
@@ -3434,7 +3434,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Gio (Matteo)</t>
+          <t>Ingra</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -3461,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J56" t="n">
         <v>0</v>
@@ -3470,16 +3470,16 @@
         <v>0</v>
       </c>
       <c r="L56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O56" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P56" t="n">
         <v>0</v>
@@ -3488,7 +3488,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Jacopo (Gianluca)</t>
+          <t>Gio (Matteo)</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -3530,10 +3530,10 @@
         <v>1</v>
       </c>
       <c r="N57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O57" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P57" t="n">
         <v>0</v>
@@ -3542,11 +3542,11 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Fabio (Gianluca)</t>
+          <t>Jacopo (Gianluca)</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C58" t="n">
         <v>1</v>
@@ -3600,7 +3600,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C59" t="n">
         <v>1</v>
@@ -3650,11 +3650,11 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Mirko (Cava)</t>
+          <t>Fabio (Gianluca)</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C60" t="n">
         <v>1</v>
@@ -3686,16 +3686,16 @@
         <v>0</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O60" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P60" t="n">
         <v>0</v>
@@ -3704,34 +3704,34 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Rudy Vitiello</t>
+          <t>Mirko (Cava)</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C61" t="n">
         <v>1</v>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J61" t="n">
         <v>0</v>
@@ -3740,10 +3740,10 @@
         <v>0</v>
       </c>
       <c r="L61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N61" t="n">
         <v>10</v>
@@ -3758,11 +3758,11 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Zen</t>
+          <t>Rudy Vitiello</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C62" t="n">
         <v>1</v>
@@ -3779,13 +3779,13 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -3794,16 +3794,16 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N62" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O62" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P62" t="n">
         <v>0</v>
@@ -3812,11 +3812,11 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Robi Muu</t>
+          <t>Zen</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C63" t="n">
         <v>1</v>
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J63" t="n">
         <v>0</v>
@@ -3848,10 +3848,10 @@
         <v>0</v>
       </c>
       <c r="L63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N63" t="n">
         <v>7</v>
@@ -3866,11 +3866,11 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Puddi</t>
+          <t>Robi Muu</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C64" t="n">
         <v>1</v>
@@ -3893,7 +3893,7 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J64" t="n">
         <v>0</v>
@@ -3908,10 +3908,10 @@
         <v>0</v>
       </c>
       <c r="N64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O64" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
@@ -3920,11 +3920,11 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Dario (Francesco)</t>
+          <t>Puddi</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65" t="n">
         <v>1</v>
@@ -3956,10 +3956,10 @@
         <v>0</v>
       </c>
       <c r="L65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N65" t="n">
         <v>6</v>
@@ -3974,11 +3974,11 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Claudio</t>
+          <t>Dario (Francesco)</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C66" t="n">
         <v>1</v>
@@ -4010,10 +4010,10 @@
         <v>0</v>
       </c>
       <c r="L66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N66" t="n">
         <v>6</v>
@@ -4028,11 +4028,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Amico Matteo</t>
+          <t>Claudio</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C67" t="n">
         <v>1</v>
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J67" t="n">
         <v>0</v>
@@ -4082,11 +4082,11 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Fabio (Mario)</t>
+          <t>Amico Matteo</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C68" t="n">
         <v>1</v>
@@ -4109,25 +4109,25 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
+        <v>8</v>
+      </c>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>0</v>
+      </c>
+      <c r="N68" t="n">
         <v>6</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>0</v>
-      </c>
-      <c r="M68" t="n">
-        <v>0</v>
-      </c>
-      <c r="N68" t="n">
-        <v>5</v>
-      </c>
       <c r="O68" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P68" t="n">
         <v>0</v>
@@ -4136,11 +4136,11 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Braz</t>
+          <t>Fabio (Mario)</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C69" t="n">
         <v>1</v>
@@ -4163,7 +4163,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J69" t="n">
         <v>0</v>
@@ -4190,11 +4190,11 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Ale (Fabri)</t>
+          <t>Braz</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C70" t="n">
         <v>1</v>
@@ -4217,7 +4217,7 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J70" t="n">
         <v>0</v>
@@ -4244,54 +4244,108 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
+          <t>Ale (Fabri)</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>68</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>0%</t>
+        </is>
+      </c>
+      <c r="F71" t="n">
+        <v>0</v>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>10</v>
+      </c>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>0</v>
+      </c>
+      <c r="L71" t="n">
+        <v>0</v>
+      </c>
+      <c r="M71" t="n">
+        <v>0</v>
+      </c>
+      <c r="N71" t="n">
+        <v>5</v>
+      </c>
+      <c r="O71" t="n">
+        <v>5</v>
+      </c>
+      <c r="P71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
           <t>Carlo Tempesta</t>
         </is>
       </c>
-      <c r="B71" t="n">
-        <v>70</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
-      </c>
-      <c r="E71" t="inlineStr">
+      <c r="B72" t="n">
+        <v>71</v>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
+      </c>
+      <c r="E72" t="inlineStr">
         <is>
           <t>0%</t>
         </is>
       </c>
-      <c r="F71" t="n">
-        <v>1</v>
-      </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="n">
+      <c r="F72" t="n">
+        <v>1</v>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0</v>
+      </c>
+      <c r="I72" t="n">
         <v>18</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>0</v>
-      </c>
-      <c r="M71" t="n">
-        <v>0</v>
-      </c>
-      <c r="N71" t="n">
-        <v>1</v>
-      </c>
-      <c r="O71" t="n">
-        <v>1</v>
-      </c>
-      <c r="P71" t="n">
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>0</v>
+      </c>
+      <c r="M72" t="n">
+        <v>0</v>
+      </c>
+      <c r="N72" t="n">
+        <v>1</v>
+      </c>
+      <c r="O72" t="n">
+        <v>1</v>
+      </c>
+      <c r="P72" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/total_Milano.xlsx
+++ b/Excel/Milano/total_Milano.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="115">
   <si>
     <t>Player</t>
   </si>
@@ -73,12 +73,12 @@
     <t>Cameron McAinsh</t>
   </si>
   <si>
+    <t>Sergio</t>
+  </si>
+  <si>
     <t>Damiano Barbanera</t>
   </si>
   <si>
-    <t>Sergio</t>
-  </si>
-  <si>
     <t>Daniele Miccoli</t>
   </si>
   <si>
@@ -121,21 +121,24 @@
     <t>Francesco</t>
   </si>
   <si>
+    <t>Cerro</t>
+  </si>
+  <si>
+    <t>Matteo (Riccardo)</t>
+  </si>
+  <si>
     <t>Riccardo Ricci</t>
   </si>
   <si>
-    <t>Matteo (Riccardo)</t>
-  </si>
-  <si>
     <t>Franco</t>
   </si>
   <si>
-    <t>Cerro</t>
-  </si>
-  <si>
     <t>Coyote (Cri)</t>
   </si>
   <si>
+    <t>Gianluca</t>
+  </si>
+  <si>
     <t>Emilano (Dani)</t>
   </si>
   <si>
@@ -145,9 +148,6 @@
     <t>Wissam Rahal</t>
   </si>
   <si>
-    <t>Gianluca</t>
-  </si>
-  <si>
     <t>Pedro</t>
   </si>
   <si>
@@ -175,6 +175,9 @@
     <t>Davide Ang</t>
   </si>
   <si>
+    <t>Gian Scotti</t>
+  </si>
+  <si>
     <t>Coco' (Stoppi)</t>
   </si>
   <si>
@@ -187,12 +190,12 @@
     <t>Rocco</t>
   </si>
   <si>
+    <t>Andrea Scalambra</t>
+  </si>
+  <si>
     <t>Ale Guati</t>
   </si>
   <si>
-    <t>Andrea Scalambra</t>
-  </si>
-  <si>
     <t>Mirko (Cava)</t>
   </si>
   <si>
@@ -205,18 +208,21 @@
     <t>Marco Taglio</t>
   </si>
   <si>
+    <t>Zen</t>
+  </si>
+  <si>
     <t>Andrea DeGa</t>
   </si>
   <si>
     <t>Gianpiero</t>
   </si>
   <si>
-    <t>Gian Scotti</t>
-  </si>
-  <si>
     <t>Ale (Mazzu)</t>
   </si>
   <si>
+    <t>Alessio (Cava)</t>
+  </si>
+  <si>
     <t>Eugenio Gibertini</t>
   </si>
   <si>
@@ -232,42 +238,39 @@
     <t>Ingra</t>
   </si>
   <si>
-    <t>Alessio (Cava)</t>
-  </si>
-  <si>
     <t>Gio (Matteo)</t>
   </si>
   <si>
+    <t>Davide (Mazzu)</t>
+  </si>
+  <si>
+    <t>Fabio (Gianluca)</t>
+  </si>
+  <si>
+    <t>Terni (Damiano)</t>
+  </si>
+  <si>
     <t>Jacopo (Gianluca)</t>
   </si>
   <si>
-    <t>Fabio (Gianluca)</t>
-  </si>
-  <si>
-    <t>Terni (Damiano)</t>
-  </si>
-  <si>
     <t>Rudy Vitiello</t>
   </si>
   <si>
-    <t>Zen</t>
-  </si>
-  <si>
     <t>Robi Muu</t>
   </si>
   <si>
+    <t>Amico Matteo</t>
+  </si>
+  <si>
+    <t>Claudio</t>
+  </si>
+  <si>
+    <t>Dario (Francesco)</t>
+  </si>
+  <si>
     <t>Puddi</t>
   </si>
   <si>
-    <t>Dario (Francesco)</t>
-  </si>
-  <si>
-    <t>Claudio</t>
-  </si>
-  <si>
-    <t>Amico Matteo</t>
-  </si>
-  <si>
     <t>Fabio (Mario)</t>
   </si>
   <si>
@@ -283,57 +286,60 @@
     <t>42%</t>
   </si>
   <si>
+    <t>58%</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>37%</t>
+  </si>
+  <si>
+    <t>47%</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>62%</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>44%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>89%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>18%</t>
+  </si>
+  <si>
     <t>57%</t>
   </si>
   <si>
-    <t>41%</t>
-  </si>
-  <si>
-    <t>37%</t>
-  </si>
-  <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>60%</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>26%</t>
-  </si>
-  <si>
-    <t>30%</t>
-  </si>
-  <si>
-    <t>47%</t>
-  </si>
-  <si>
-    <t>27%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>25%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>88%</t>
-  </si>
-  <si>
-    <t>18%</t>
-  </si>
-  <si>
     <t>29%</t>
   </si>
   <si>
@@ -341,9 +347,6 @@
   </si>
   <si>
     <t>75%</t>
-  </si>
-  <si>
-    <t>40%</t>
   </si>
   <si>
     <t>100%</t>
@@ -713,7 +716,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -783,7 +786,7 @@
         <v>13</v>
       </c>
       <c r="E2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -827,13 +830,13 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -845,7 +848,7 @@
         <v>2</v>
       </c>
       <c r="I3">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -854,19 +857,19 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>0.17</v>
+        <v>0.19</v>
       </c>
       <c r="M3">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N3">
         <v>10.77</v>
       </c>
       <c r="O3">
-        <v>323</v>
+        <v>334</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -877,13 +880,13 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D4">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -895,25 +898,25 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="J4">
         <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="M4">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N4">
-        <v>10.24</v>
+        <v>10.2</v>
       </c>
       <c r="O4">
-        <v>297</v>
+        <v>306</v>
       </c>
       <c r="P4">
         <v>1</v>
@@ -927,43 +930,43 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>204</v>
+        <v>163</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>2.15</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="N5">
-        <v>10.63</v>
+        <v>11.72</v>
       </c>
       <c r="O5">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -977,43 +980,43 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>151</v>
+        <v>204</v>
       </c>
       <c r="J6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>0.96</v>
+        <v>2.15</v>
       </c>
       <c r="M6">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="N6">
-        <v>11.92</v>
+        <v>10.63</v>
       </c>
       <c r="O6">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P6">
         <v>1</v>
@@ -1033,7 +1036,7 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F7">
         <v>0</v>
@@ -1077,10 +1080,10 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
         <v>94</v>
@@ -1089,13 +1092,13 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="J8">
         <v>1</v>
@@ -1104,19 +1107,19 @@
         <v>2</v>
       </c>
       <c r="L8">
-        <v>3.28</v>
+        <v>3.26</v>
       </c>
       <c r="M8">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N8">
-        <v>13.39</v>
+        <v>13.68</v>
       </c>
       <c r="O8">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1127,10 +1130,10 @@
         <v>8</v>
       </c>
       <c r="C9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>95</v>
@@ -1145,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -1154,19 +1157,19 @@
         <v>2</v>
       </c>
       <c r="L9">
-        <v>0.21</v>
+        <v>0.24</v>
       </c>
       <c r="M9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N9">
-        <v>9.539999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="O9">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="P9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1227,7 +1230,7 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11">
         <v>6</v>
@@ -1245,28 +1248,28 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11">
         <v>2</v>
       </c>
       <c r="L11">
-        <v>0.52</v>
+        <v>0.62</v>
       </c>
       <c r="M11">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="N11">
-        <v>8.779999999999999</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="O11">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="P11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1333,7 +1336,7 @@
         <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="F13">
         <v>0</v>
@@ -1383,7 +1386,7 @@
         <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1427,13 +1430,13 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D15">
         <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -1445,7 +1448,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1454,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="M15">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N15">
-        <v>9.529999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="O15">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="P15">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1477,13 +1480,13 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D16">
         <v>7</v>
       </c>
       <c r="E16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F16">
         <v>0</v>
@@ -1495,7 +1498,7 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -1504,16 +1507,16 @@
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="M16">
         <v>17</v>
       </c>
       <c r="N16">
-        <v>10.07</v>
+        <v>9.73</v>
       </c>
       <c r="O16">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -1527,13 +1530,13 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D17">
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F17">
         <v>0</v>
@@ -1545,7 +1548,7 @@
         <v>2</v>
       </c>
       <c r="I17">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="J17">
         <v>2</v>
@@ -1554,16 +1557,16 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>0.73</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M17">
         <v>11</v>
       </c>
       <c r="N17">
-        <v>8.93</v>
+        <v>8.69</v>
       </c>
       <c r="O17">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="P17">
         <v>1</v>
@@ -1633,7 +1636,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1683,7 +1686,7 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1727,46 +1730,46 @@
         <v>20</v>
       </c>
       <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>8</v>
+      </c>
+      <c r="E21" t="s">
+        <v>103</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>47</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1.11</v>
+      </c>
+      <c r="M21">
         <v>10</v>
       </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21" t="s">
-        <v>95</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>1</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>82</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.7</v>
-      </c>
-      <c r="M21">
-        <v>7</v>
-      </c>
       <c r="N21">
-        <v>10.5</v>
+        <v>12.22</v>
       </c>
       <c r="O21">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="P21">
-        <v>-3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1774,7 +1777,7 @@
         <v>36</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>7</v>
@@ -1783,7 +1786,7 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1824,28 +1827,28 @@
         <v>37</v>
       </c>
       <c r="B23">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D23">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1854,19 +1857,19 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.08</v>
+        <v>0.7</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="N23">
-        <v>8.42</v>
+        <v>10.5</v>
       </c>
       <c r="O23">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1877,46 +1880,46 @@
         <v>23</v>
       </c>
       <c r="C24">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D24">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I24">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="M24">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="N24">
-        <v>12</v>
+        <v>8.42</v>
       </c>
       <c r="O24">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="P24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1933,7 +1936,7 @@
         <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F25">
         <v>0</v>
@@ -1980,43 +1983,43 @@
         <v>7</v>
       </c>
       <c r="D26">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H26">
         <v>1</v>
       </c>
       <c r="I26">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="J26">
         <v>1</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L26">
-        <v>1.86</v>
+        <v>0.86</v>
       </c>
       <c r="M26">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="N26">
-        <v>9.57</v>
+        <v>10.29</v>
       </c>
       <c r="O26">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2027,13 +2030,13 @@
         <v>26</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2042,31 +2045,31 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27">
-        <v>44</v>
+        <v>57</v>
       </c>
       <c r="J27">
         <v>1</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
-        <v>0.33</v>
+        <v>1.86</v>
       </c>
       <c r="M27">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="N27">
-        <v>10.83</v>
+        <v>9.57</v>
       </c>
       <c r="O27">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P27">
-        <v>-6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2077,13 +2080,13 @@
         <v>27</v>
       </c>
       <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
         <v>4</v>
       </c>
-      <c r="D28">
-        <v>3</v>
-      </c>
       <c r="E28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2095,28 +2098,28 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28">
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N28">
-        <v>15</v>
+        <v>10.83</v>
       </c>
       <c r="O28">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="P28">
-        <v>-7</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2124,49 +2127,49 @@
         <v>43</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D29">
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
       <c r="F29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
       </c>
       <c r="L29">
-        <v>1</v>
+        <v>0.25</v>
       </c>
       <c r="M29">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N29">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="O29">
         <v>60</v>
       </c>
       <c r="P29">
-        <v>2</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2174,7 +2177,7 @@
         <v>44</v>
       </c>
       <c r="B30">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -2183,7 +2186,7 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2233,7 +2236,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2283,7 +2286,7 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2333,7 +2336,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2383,7 +2386,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2433,7 +2436,7 @@
         <v>3</v>
       </c>
       <c r="E35" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F35">
         <v>0</v>
@@ -2483,7 +2486,7 @@
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -2533,7 +2536,7 @@
         <v>1</v>
       </c>
       <c r="E37" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2583,7 +2586,7 @@
         <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2633,7 +2636,7 @@
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F39">
         <v>0</v>
@@ -2645,25 +2648,25 @@
         <v>0</v>
       </c>
       <c r="I39">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N39">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O39">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P39">
         <v>4</v>
@@ -2674,28 +2677,28 @@
         <v>54</v>
       </c>
       <c r="B40">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40">
         <v>0</v>
       </c>
       <c r="I40">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2704,19 +2707,19 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>9.33</v>
+        <v>14</v>
       </c>
       <c r="O40">
         <v>28</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2724,49 +2727,49 @@
         <v>55</v>
       </c>
       <c r="B41">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D41">
         <v>1</v>
       </c>
       <c r="E41" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H41">
         <v>0</v>
       </c>
       <c r="I41">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41">
         <v>0</v>
       </c>
       <c r="L41">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="M41">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N41">
-        <v>13.5</v>
+        <v>9.33</v>
       </c>
       <c r="O41">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P41">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2777,43 +2780,43 @@
         <v>41</v>
       </c>
       <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>11</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>2</v>
+      </c>
+      <c r="M42">
         <v>4</v>
       </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42" t="s">
-        <v>113</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
-      <c r="H42">
-        <v>0</v>
-      </c>
-      <c r="I42">
-        <v>37</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>1.5</v>
-      </c>
-      <c r="M42">
-        <v>6</v>
-      </c>
       <c r="N42">
-        <v>6.5</v>
+        <v>13.5</v>
       </c>
       <c r="O42">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P42">
         <v>-1</v>
@@ -2824,16 +2827,16 @@
         <v>57</v>
       </c>
       <c r="B43">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -2845,28 +2848,28 @@
         <v>0</v>
       </c>
       <c r="I43">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="J43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43">
         <v>0</v>
       </c>
       <c r="L43">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="N43">
-        <v>13</v>
+        <v>6.5</v>
       </c>
       <c r="O43">
         <v>26</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2874,7 +2877,7 @@
         <v>58</v>
       </c>
       <c r="B44">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C44">
         <v>3</v>
@@ -2883,7 +2886,7 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2924,16 +2927,16 @@
         <v>59</v>
       </c>
       <c r="B45">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C45">
         <v>2</v>
       </c>
       <c r="D45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2945,28 +2948,28 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N45">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="O45">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2974,16 +2977,16 @@
         <v>60</v>
       </c>
       <c r="B46">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C46">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2995,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -3010,13 +3013,13 @@
         <v>0</v>
       </c>
       <c r="N46">
-        <v>7.67</v>
+        <v>11.5</v>
       </c>
       <c r="O46">
         <v>23</v>
       </c>
       <c r="P46">
-        <v>-6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3024,16 +3027,16 @@
         <v>61</v>
       </c>
       <c r="B47">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D47">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F47">
         <v>0</v>
@@ -3045,7 +3048,7 @@
         <v>0</v>
       </c>
       <c r="I47">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3054,19 +3057,19 @@
         <v>0</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N47">
-        <v>11</v>
+        <v>7.67</v>
       </c>
       <c r="O47">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P47">
-        <v>6</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3077,13 +3080,13 @@
         <v>47</v>
       </c>
       <c r="C48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3095,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -3107,16 +3110,16 @@
         <v>1</v>
       </c>
       <c r="M48">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N48">
-        <v>6.67</v>
+        <v>11</v>
       </c>
       <c r="O48">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3133,7 +3136,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3145,7 +3148,7 @@
         <v>0</v>
       </c>
       <c r="I49">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -3154,19 +3157,19 @@
         <v>0</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N49">
-        <v>6.33</v>
+        <v>6.67</v>
       </c>
       <c r="O49">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P49">
-        <v>-5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3174,7 +3177,7 @@
         <v>64</v>
       </c>
       <c r="B50">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -3183,7 +3186,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3195,7 +3198,7 @@
         <v>0</v>
       </c>
       <c r="I50">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -3204,19 +3207,19 @@
         <v>0</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N50">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O50">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P50">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3224,16 +3227,16 @@
         <v>65</v>
       </c>
       <c r="B51">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C51">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3245,28 +3248,28 @@
         <v>0</v>
       </c>
       <c r="I51">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J51">
         <v>0</v>
       </c>
       <c r="K51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N51">
-        <v>18</v>
+        <v>6.33</v>
       </c>
       <c r="O51">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3283,7 +3286,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3295,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="I52">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -3310,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O52">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P52">
-        <v>-7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3327,13 +3330,13 @@
         <v>52</v>
       </c>
       <c r="C53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D53">
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3345,7 +3348,7 @@
         <v>0</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -3354,19 +3357,19 @@
         <v>0</v>
       </c>
       <c r="L53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N53">
-        <v>16</v>
+        <v>8.5</v>
       </c>
       <c r="O53">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3374,16 +3377,16 @@
         <v>68</v>
       </c>
       <c r="B54">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C54">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D54">
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3395,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="I54">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -3404,16 +3407,16 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M54">
         <v>1</v>
       </c>
       <c r="N54">
-        <v>15</v>
+        <v>8.5</v>
       </c>
       <c r="O54">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="P54">
         <v>0</v>
@@ -3424,7 +3427,7 @@
         <v>69</v>
       </c>
       <c r="B55">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -3433,7 +3436,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3460,10 +3463,10 @@
         <v>1</v>
       </c>
       <c r="N55">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="O55">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P55">
         <v>0</v>
@@ -3483,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3495,7 +3498,7 @@
         <v>0</v>
       </c>
       <c r="I56">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -3504,16 +3507,16 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N56">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="O56">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="P56">
         <v>0</v>
@@ -3524,7 +3527,7 @@
         <v>71</v>
       </c>
       <c r="B57">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -3533,7 +3536,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3554,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N57">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O57">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="P57">
         <v>0</v>
@@ -3583,7 +3586,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3595,7 +3598,7 @@
         <v>0</v>
       </c>
       <c r="I58">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -3604,16 +3607,16 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N58">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="O58">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P58">
         <v>0</v>
@@ -3624,7 +3627,7 @@
         <v>73</v>
       </c>
       <c r="B59">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C59">
         <v>1</v>
@@ -3633,7 +3636,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3645,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -3654,16 +3657,16 @@
         <v>0</v>
       </c>
       <c r="L59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N59">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O59">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="P59">
         <v>0</v>
@@ -3683,7 +3686,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3695,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="I60">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -3710,10 +3713,10 @@
         <v>1</v>
       </c>
       <c r="N60">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O60">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P60">
         <v>0</v>
@@ -3733,7 +3736,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3754,16 +3757,16 @@
         <v>0</v>
       </c>
       <c r="L61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N61">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O61">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P61">
         <v>0</v>
@@ -3774,16 +3777,16 @@
         <v>76</v>
       </c>
       <c r="B62">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3795,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="I62">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -3804,10 +3807,10 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62">
         <v>11</v>
@@ -3824,7 +3827,7 @@
         <v>77</v>
       </c>
       <c r="B63">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C63">
         <v>1</v>
@@ -3833,19 +3836,19 @@
         <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
         <v>0</v>
       </c>
       <c r="I63">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3854,16 +3857,16 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O63">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P63">
         <v>0</v>
@@ -3874,16 +3877,16 @@
         <v>78</v>
       </c>
       <c r="B64">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3895,7 +3898,7 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3904,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M64">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N64">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O64">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="P64">
         <v>0</v>
@@ -3924,7 +3927,7 @@
         <v>79</v>
       </c>
       <c r="B65">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C65">
         <v>1</v>
@@ -3933,19 +3936,19 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H65">
         <v>0</v>
       </c>
       <c r="I65">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -3954,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="O65">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="P65">
         <v>0</v>
@@ -3983,7 +3986,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -3995,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="I66">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -4010,10 +4013,10 @@
         <v>0</v>
       </c>
       <c r="N66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P66">
         <v>0</v>
@@ -4024,7 +4027,7 @@
         <v>81</v>
       </c>
       <c r="B67">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C67">
         <v>1</v>
@@ -4033,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -4045,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="I67">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -4054,10 +4057,10 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N67">
         <v>6</v>
@@ -4074,7 +4077,7 @@
         <v>82</v>
       </c>
       <c r="B68">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C68">
         <v>1</v>
@@ -4083,7 +4086,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4124,7 +4127,7 @@
         <v>83</v>
       </c>
       <c r="B69">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C69">
         <v>1</v>
@@ -4133,7 +4136,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4145,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -4154,10 +4157,10 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69">
         <v>6</v>
@@ -4174,7 +4177,7 @@
         <v>84</v>
       </c>
       <c r="B70">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C70">
         <v>1</v>
@@ -4183,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -4195,25 +4198,25 @@
         <v>0</v>
       </c>
       <c r="I70">
+        <v>9</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
         <v>6</v>
       </c>
-      <c r="J70">
-        <v>0</v>
-      </c>
-      <c r="K70">
-        <v>0</v>
-      </c>
-      <c r="L70">
-        <v>0</v>
-      </c>
-      <c r="M70">
-        <v>0</v>
-      </c>
-      <c r="N70">
-        <v>5</v>
-      </c>
       <c r="O70">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P70">
         <v>0</v>
@@ -4224,7 +4227,7 @@
         <v>85</v>
       </c>
       <c r="B71">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4233,7 +4236,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -4245,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="I71">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -4274,7 +4277,7 @@
         <v>86</v>
       </c>
       <c r="B72">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4283,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4295,7 +4298,7 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4324,7 +4327,7 @@
         <v>87</v>
       </c>
       <c r="B73">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4333,10 +4336,10 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G73">
         <v>0</v>
@@ -4345,27 +4348,77 @@
         <v>0</v>
       </c>
       <c r="I73">
+        <v>10</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>5</v>
+      </c>
+      <c r="O73">
+        <v>5</v>
+      </c>
+      <c r="P73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
+      <c r="A74" t="s">
+        <v>88</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>114</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>0</v>
+      </c>
+      <c r="I74">
         <v>18</v>
       </c>
-      <c r="J73">
-        <v>0</v>
-      </c>
-      <c r="K73">
-        <v>0</v>
-      </c>
-      <c r="L73">
-        <v>0</v>
-      </c>
-      <c r="M73">
-        <v>0</v>
-      </c>
-      <c r="N73">
-        <v>1</v>
-      </c>
-      <c r="O73">
-        <v>1</v>
-      </c>
-      <c r="P73">
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>1</v>
+      </c>
+      <c r="O74">
+        <v>1</v>
+      </c>
+      <c r="P74">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/total_Milano.xlsx
+++ b/Excel/Milano/total_Milano.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="114">
   <si>
     <t>Player</t>
   </si>
@@ -79,12 +79,12 @@
     <t>Damiano Barbanera</t>
   </si>
   <si>
+    <t>Mazzu</t>
+  </si>
+  <si>
     <t>Daniele Miccoli</t>
   </si>
   <si>
-    <t>Mazzu</t>
-  </si>
-  <si>
     <t>Federico Paolucci</t>
   </si>
   <si>
@@ -100,30 +100,30 @@
     <t>Tito</t>
   </si>
   <si>
+    <t>Maurizio</t>
+  </si>
+  <si>
     <t>Andrea Silverstri</t>
   </si>
   <si>
+    <t>Cri Diaz Lopez</t>
+  </si>
+  <si>
     <t>Jacopo</t>
   </si>
   <si>
-    <t>Maurizio</t>
-  </si>
-  <si>
-    <t>Cri Diaz Lopez</t>
-  </si>
-  <si>
     <t>Federico (Damiano)</t>
   </si>
   <si>
     <t>Robi (Stoppi)</t>
   </si>
   <si>
+    <t>Cerro</t>
+  </si>
+  <si>
     <t>Francesco</t>
   </si>
   <si>
-    <t>Cerro</t>
-  </si>
-  <si>
     <t>Matteo (Riccardo)</t>
   </si>
   <si>
@@ -133,24 +133,24 @@
     <t>Franco</t>
   </si>
   <si>
+    <t>Gianluca</t>
+  </si>
+  <si>
     <t>Coyote (Cri)</t>
   </si>
   <si>
-    <t>Gianluca</t>
-  </si>
-  <si>
     <t>Emilano (Dani)</t>
   </si>
   <si>
     <t>Stefano (Tito)</t>
   </si>
   <si>
+    <t>Pedro</t>
+  </si>
+  <si>
     <t>Wissam Rahal</t>
   </si>
   <si>
-    <t>Pedro</t>
-  </si>
-  <si>
     <t>Guido (Sergio)</t>
   </si>
   <si>
@@ -163,42 +163,42 @@
     <t>Luca SDV</t>
   </si>
   <si>
+    <t>Mario Croce</t>
+  </si>
+  <si>
     <t>Matteo Virg</t>
   </si>
   <si>
-    <t>Mario Croce</t>
+    <t>Davide Ang</t>
   </si>
   <si>
     <t>Omar</t>
   </si>
   <si>
-    <t>Davide Ang</t>
+    <t>Mirko (Cava)</t>
+  </si>
+  <si>
+    <t>Rocco</t>
   </si>
   <si>
     <t>Gian Scotti</t>
   </si>
   <si>
+    <t>Alessandro Gibertini</t>
+  </si>
+  <si>
     <t>Coco' (Stoppi)</t>
   </si>
   <si>
-    <t>Alessandro Gibertini</t>
-  </si>
-  <si>
     <t>Stefano (Cava)</t>
   </si>
   <si>
-    <t>Rocco</t>
-  </si>
-  <si>
     <t>Andrea Scalambra</t>
   </si>
   <si>
     <t>Ale Guati</t>
   </si>
   <si>
-    <t>Mirko (Cava)</t>
-  </si>
-  <si>
     <t>Thomas</t>
   </si>
   <si>
@@ -244,15 +244,15 @@
     <t>Davide (Mazzu)</t>
   </si>
   <si>
+    <t>Jacopo (Gianluca)</t>
+  </si>
+  <si>
     <t>Fabio (Gianluca)</t>
   </si>
   <si>
     <t>Terni (Damiano)</t>
   </si>
   <si>
-    <t>Jacopo (Gianluca)</t>
-  </si>
-  <si>
     <t>Rudy Vitiello</t>
   </si>
   <si>
@@ -265,6 +265,9 @@
     <t>Claudio</t>
   </si>
   <si>
+    <t>Lipi (Mirko)</t>
+  </si>
+  <si>
     <t>Dario (Francesco)</t>
   </si>
   <si>
@@ -283,7 +286,7 @@
     <t>Carlo Tempesta</t>
   </si>
   <si>
-    <t>42%</t>
+    <t>44%</t>
   </si>
   <si>
     <t>58%</t>
@@ -292,13 +295,13 @@
     <t>40%</t>
   </si>
   <si>
-    <t>60%</t>
-  </si>
-  <si>
     <t>37%</t>
   </si>
   <si>
-    <t>47%</t>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>57%</t>
   </si>
   <si>
     <t>52%</t>
@@ -307,42 +310,36 @@
     <t>55%</t>
   </si>
   <si>
+    <t>24%</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>64%</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>29%</t>
+  </si>
+  <si>
+    <t>90%</t>
+  </si>
+  <si>
     <t>25%</t>
   </si>
   <si>
-    <t>30%</t>
+    <t>71%</t>
   </si>
   <si>
     <t>62%</t>
   </si>
   <si>
-    <t>41%</t>
-  </si>
-  <si>
-    <t>44%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>89%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
     <t>18%</t>
   </si>
   <si>
-    <t>57%</t>
-  </si>
-  <si>
-    <t>29%</t>
-  </si>
-  <si>
     <t>67%</t>
   </si>
   <si>
@@ -355,10 +352,10 @@
     <t>20%</t>
   </si>
   <si>
+    <t>0%</t>
+  </si>
+  <si>
     <t>33%</t>
-  </si>
-  <si>
-    <t>0%</t>
   </si>
 </sst>
 </file>
@@ -716,7 +713,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P74"/>
+  <dimension ref="A1:P75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -780,13 +777,13 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D2">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -798,7 +795,7 @@
         <v>2</v>
       </c>
       <c r="I2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="J2">
         <v>3</v>
@@ -807,16 +804,16 @@
         <v>1</v>
       </c>
       <c r="L2">
-        <v>0.87</v>
+        <v>0.88</v>
       </c>
       <c r="M2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N2">
-        <v>10.94</v>
+        <v>11.09</v>
       </c>
       <c r="O2">
-        <v>339</v>
+        <v>355</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -836,7 +833,7 @@
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F3">
         <v>0</v>
@@ -886,7 +883,7 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -930,13 +927,13 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -948,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="J5">
         <v>2</v>
@@ -957,16 +954,16 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="M5">
         <v>25</v>
       </c>
       <c r="N5">
-        <v>11.72</v>
+        <v>11.46</v>
       </c>
       <c r="O5">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="P5">
         <v>1</v>
@@ -1033,43 +1030,43 @@
         <v>20</v>
       </c>
       <c r="D7">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="M7">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="N7">
-        <v>13.2</v>
+        <v>14.05</v>
       </c>
       <c r="O7">
-        <v>264</v>
+        <v>281</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1080,46 +1077,46 @@
         <v>7</v>
       </c>
       <c r="C8">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>138</v>
+        <v>151</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>3.26</v>
+        <v>3.1</v>
       </c>
       <c r="M8">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="N8">
-        <v>13.68</v>
+        <v>12.86</v>
       </c>
       <c r="O8">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="P8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1136,7 +1133,7 @@
         <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F9">
         <v>0</v>
@@ -1186,7 +1183,7 @@
         <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F10">
         <v>0</v>
@@ -1230,13 +1227,13 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F11">
         <v>0</v>
@@ -1248,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="J11">
         <v>2</v>
@@ -1257,19 +1254,19 @@
         <v>2</v>
       </c>
       <c r="L11">
-        <v>0.62</v>
+        <v>0.6</v>
       </c>
       <c r="M11">
         <v>15</v>
       </c>
       <c r="N11">
-        <v>8.880000000000001</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="O11">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1286,7 +1283,7 @@
         <v>6</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F12">
         <v>0</v>
@@ -1330,26 +1327,26 @@
         <v>12</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
         <v>99</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>96</v>
-      </c>
       <c r="J13">
         <v>1</v>
       </c>
@@ -1357,19 +1354,19 @@
         <v>2</v>
       </c>
       <c r="L13">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="M13">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N13">
-        <v>12.46</v>
+        <v>12.79</v>
       </c>
       <c r="O13">
-        <v>162</v>
+        <v>179</v>
       </c>
       <c r="P13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1380,13 +1377,13 @@
         <v>13</v>
       </c>
       <c r="C14">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1398,28 +1395,28 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.59</v>
+        <v>1.12</v>
       </c>
       <c r="M14">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="N14">
-        <v>9.41</v>
+        <v>10.19</v>
       </c>
       <c r="O14">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1430,7 +1427,7 @@
         <v>14</v>
       </c>
       <c r="C15">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15">
         <v>7</v>
@@ -1448,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="I15">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1457,19 +1454,19 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.62</v>
+        <v>0.59</v>
       </c>
       <c r="M15">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="N15">
-        <v>9.380000000000001</v>
+        <v>9.41</v>
       </c>
       <c r="O15">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="P15">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1480,43 +1477,43 @@
         <v>15</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D16">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E16" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16">
-        <v>113</v>
+        <v>143</v>
       </c>
       <c r="J16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1.13</v>
+        <v>0.65</v>
       </c>
       <c r="M16">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="N16">
-        <v>9.73</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="O16">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -1530,46 +1527,46 @@
         <v>16</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E17" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="J17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0.6899999999999999</v>
+        <v>1.59</v>
       </c>
       <c r="M17">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="N17">
-        <v>8.69</v>
+        <v>9.06</v>
       </c>
       <c r="O17">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="P17">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1586,7 +1583,7 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F18">
         <v>0</v>
@@ -1636,7 +1633,7 @@
         <v>7</v>
       </c>
       <c r="E19" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1680,46 +1677,46 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>96</v>
+        <v>50</v>
       </c>
       <c r="J20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.17</v>
+        <v>1.1</v>
       </c>
       <c r="M20">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="N20">
-        <v>9.58</v>
+        <v>12.7</v>
       </c>
       <c r="O20">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="P20">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1730,46 +1727,46 @@
         <v>20</v>
       </c>
       <c r="C21">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>47</v>
+        <v>96</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.11</v>
+        <v>0.17</v>
       </c>
       <c r="M21">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="N21">
-        <v>12.22</v>
+        <v>9.58</v>
       </c>
       <c r="O21">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="P21">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1786,7 +1783,7 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F22">
         <v>0</v>
@@ -1836,7 +1833,7 @@
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F23">
         <v>0</v>
@@ -1886,7 +1883,7 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F24">
         <v>3</v>
@@ -1930,46 +1927,46 @@
         <v>24</v>
       </c>
       <c r="C25">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D25">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E25" t="s">
         <v>106</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I25">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="J25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.45</v>
+        <v>0.88</v>
       </c>
       <c r="M25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="N25">
-        <v>6.91</v>
+        <v>11.12</v>
       </c>
       <c r="O25">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="P25">
-        <v>-2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -1980,46 +1977,46 @@
         <v>25</v>
       </c>
       <c r="C26">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D26">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
         <v>107</v>
       </c>
       <c r="F26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="J26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K26">
         <v>0</v>
       </c>
       <c r="L26">
-        <v>0.86</v>
+        <v>0.45</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>10.29</v>
+        <v>6.91</v>
       </c>
       <c r="O26">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="P26">
-        <v>1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2036,7 +2033,7 @@
         <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="F27">
         <v>0</v>
@@ -2086,7 +2083,7 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -2136,7 +2133,7 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -2148,7 +2145,7 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -2157,10 +2154,10 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0.25</v>
+        <v>1.5</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="N29">
         <v>15</v>
@@ -2169,7 +2166,7 @@
         <v>60</v>
       </c>
       <c r="P29">
-        <v>-7</v>
+        <v>-6</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2186,7 +2183,7 @@
         <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F30">
         <v>0</v>
@@ -2198,7 +2195,7 @@
         <v>0</v>
       </c>
       <c r="I30">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J30">
         <v>0</v>
@@ -2207,10 +2204,10 @@
         <v>0</v>
       </c>
       <c r="L30">
-        <v>1.5</v>
+        <v>0.25</v>
       </c>
       <c r="M30">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="N30">
         <v>15</v>
@@ -2219,7 +2216,7 @@
         <v>60</v>
       </c>
       <c r="P30">
-        <v>-6</v>
+        <v>-7</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2236,7 +2233,7 @@
         <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F31">
         <v>0</v>
@@ -2286,7 +2283,7 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F32">
         <v>0</v>
@@ -2336,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F33">
         <v>0</v>
@@ -2386,7 +2383,7 @@
         <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F34">
         <v>0</v>
@@ -2430,25 +2427,25 @@
         <v>34</v>
       </c>
       <c r="C35">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D35">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="F35">
         <v>0</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
       <c r="I35">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -2457,19 +2454,19 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>1</v>
+        <v>2.25</v>
       </c>
       <c r="M35">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="N35">
-        <v>12.33</v>
+        <v>9.25</v>
       </c>
       <c r="O35">
         <v>37</v>
       </c>
       <c r="P35">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2480,25 +2477,25 @@
         <v>34</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E36" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36">
         <v>0</v>
       </c>
       <c r="I36">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -2507,19 +2504,19 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>2.25</v>
+        <v>1</v>
       </c>
       <c r="M36">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="N36">
-        <v>9.25</v>
+        <v>12.33</v>
       </c>
       <c r="O36">
         <v>37</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2530,13 +2527,13 @@
         <v>36</v>
       </c>
       <c r="C37">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F37">
         <v>0</v>
@@ -2548,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="I37">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -2557,19 +2554,19 @@
         <v>0</v>
       </c>
       <c r="L37">
-        <v>0.8</v>
+        <v>0.33</v>
       </c>
       <c r="M37">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N37">
-        <v>7</v>
+        <v>11.67</v>
       </c>
       <c r="O37">
         <v>35</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2580,13 +2577,13 @@
         <v>36</v>
       </c>
       <c r="C38">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D38">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -2598,7 +2595,7 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -2607,19 +2604,19 @@
         <v>0</v>
       </c>
       <c r="L38">
-        <v>0.33</v>
+        <v>0.8</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N38">
-        <v>11.67</v>
+        <v>7</v>
       </c>
       <c r="O38">
         <v>35</v>
       </c>
       <c r="P38">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2630,46 +2627,46 @@
         <v>38</v>
       </c>
       <c r="C39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39">
         <v>2</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39">
         <v>0</v>
       </c>
       <c r="I39">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="M39">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N39">
-        <v>15</v>
+        <v>10.67</v>
       </c>
       <c r="O39">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="P39">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2680,13 +2677,13 @@
         <v>39</v>
       </c>
       <c r="C40">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E40" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F40">
         <v>0</v>
@@ -2698,7 +2695,7 @@
         <v>0</v>
       </c>
       <c r="I40">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -2707,19 +2704,19 @@
         <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N40">
-        <v>14</v>
+        <v>6.2</v>
       </c>
       <c r="O40">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="P40">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2727,49 +2724,49 @@
         <v>55</v>
       </c>
       <c r="B41">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41">
+        <v>2</v>
+      </c>
+      <c r="D41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>0</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>12</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>1</v>
+      </c>
+      <c r="L41">
+        <v>1.5</v>
+      </c>
+      <c r="M41">
         <v>3</v>
       </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41" t="s">
-        <v>113</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
-      <c r="I41">
-        <v>25</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0.33</v>
-      </c>
-      <c r="M41">
-        <v>1</v>
-      </c>
       <c r="N41">
-        <v>9.33</v>
+        <v>15</v>
       </c>
       <c r="O41">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P41">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2780,46 +2777,46 @@
         <v>41</v>
       </c>
       <c r="C42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F42">
         <v>0</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H42">
         <v>0</v>
       </c>
       <c r="I42">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="J42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42">
         <v>0</v>
       </c>
       <c r="L42">
-        <v>2</v>
+        <v>0.33</v>
       </c>
       <c r="M42">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N42">
-        <v>13.5</v>
+        <v>9.33</v>
       </c>
       <c r="O42">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P42">
-        <v>-1</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2827,49 +2824,49 @@
         <v>57</v>
       </c>
       <c r="B43">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="E43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>0</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>8</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>14</v>
+      </c>
+      <c r="O43">
+        <v>28</v>
+      </c>
+      <c r="P43">
         <v>4</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43" t="s">
-        <v>114</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
-      <c r="H43">
-        <v>0</v>
-      </c>
-      <c r="I43">
-        <v>37</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>1.5</v>
-      </c>
-      <c r="M43">
-        <v>6</v>
-      </c>
-      <c r="N43">
-        <v>6.5</v>
-      </c>
-      <c r="O43">
-        <v>26</v>
-      </c>
-      <c r="P43">
-        <v>-1</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2877,16 +2874,16 @@
         <v>58</v>
       </c>
       <c r="B44">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -2898,25 +2895,25 @@
         <v>0</v>
       </c>
       <c r="I44">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44">
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0.33</v>
+        <v>2</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N44">
-        <v>8.67</v>
+        <v>13.5</v>
       </c>
       <c r="O44">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P44">
         <v>-1</v>
@@ -2927,16 +2924,16 @@
         <v>59</v>
       </c>
       <c r="B45">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="F45">
         <v>0</v>
@@ -2948,28 +2945,28 @@
         <v>0</v>
       </c>
       <c r="I45">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K45">
         <v>0</v>
       </c>
       <c r="L45">
-        <v>1</v>
+        <v>0.33</v>
       </c>
       <c r="M45">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N45">
-        <v>13</v>
+        <v>8.67</v>
       </c>
       <c r="O45">
         <v>26</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2977,16 +2974,16 @@
         <v>60</v>
       </c>
       <c r="B46">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
       <c r="D46">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -2998,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N46">
-        <v>11.5</v>
+        <v>13</v>
       </c>
       <c r="O46">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="P46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3027,7 +3024,7 @@
         <v>61</v>
       </c>
       <c r="B47">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C47">
         <v>3</v>
@@ -3086,7 +3083,7 @@
         <v>2</v>
       </c>
       <c r="E48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F48">
         <v>0</v>
@@ -3136,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F49">
         <v>0</v>
@@ -3186,7 +3183,7 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F50">
         <v>0</v>
@@ -3236,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F51">
         <v>0</v>
@@ -3286,7 +3283,7 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F52">
         <v>0</v>
@@ -3336,7 +3333,7 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -3386,7 +3383,7 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -3436,7 +3433,7 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -3486,7 +3483,7 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -3536,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -3586,7 +3583,7 @@
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -3636,7 +3633,7 @@
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -3686,7 +3683,7 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -3736,7 +3733,7 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -3786,7 +3783,7 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -3833,10 +3830,10 @@
         <v>1</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="F63">
         <v>0</v>
@@ -3848,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="I63">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -3857,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N63">
         <v>11</v>
@@ -3883,10 +3880,10 @@
         <v>1</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E64" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F64">
         <v>0</v>
@@ -3898,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="I64">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -3907,10 +3904,10 @@
         <v>0</v>
       </c>
       <c r="L64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N64">
         <v>11</v>
@@ -3936,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F65">
         <v>0</v>
@@ -3986,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="E66" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F66">
         <v>0</v>
@@ -4036,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F67">
         <v>0</v>
@@ -4086,7 +4083,7 @@
         <v>0</v>
       </c>
       <c r="E68" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F68">
         <v>0</v>
@@ -4136,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="E69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F69">
         <v>0</v>
@@ -4148,7 +4145,7 @@
         <v>0</v>
       </c>
       <c r="I69">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -4186,7 +4183,7 @@
         <v>0</v>
       </c>
       <c r="E70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F70">
         <v>0</v>
@@ -4207,10 +4204,10 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70">
         <v>6</v>
@@ -4227,7 +4224,7 @@
         <v>85</v>
       </c>
       <c r="B71">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C71">
         <v>1</v>
@@ -4236,7 +4233,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F71">
         <v>0</v>
@@ -4248,25 +4245,25 @@
         <v>0</v>
       </c>
       <c r="I71">
+        <v>9</v>
+      </c>
+      <c r="J71">
+        <v>0</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+      <c r="N71">
         <v>6</v>
       </c>
-      <c r="J71">
-        <v>0</v>
-      </c>
-      <c r="K71">
-        <v>0</v>
-      </c>
-      <c r="L71">
-        <v>0</v>
-      </c>
-      <c r="M71">
-        <v>0</v>
-      </c>
-      <c r="N71">
-        <v>5</v>
-      </c>
       <c r="O71">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P71">
         <v>0</v>
@@ -4277,7 +4274,7 @@
         <v>86</v>
       </c>
       <c r="B72">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C72">
         <v>1</v>
@@ -4286,7 +4283,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F72">
         <v>0</v>
@@ -4298,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="I72">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -4327,7 +4324,7 @@
         <v>87</v>
       </c>
       <c r="B73">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C73">
         <v>1</v>
@@ -4336,7 +4333,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F73">
         <v>0</v>
@@ -4348,7 +4345,7 @@
         <v>0</v>
       </c>
       <c r="I73">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -4377,7 +4374,7 @@
         <v>88</v>
       </c>
       <c r="B74">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C74">
         <v>1</v>
@@ -4386,10 +4383,10 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G74">
         <v>0</v>
@@ -4398,27 +4395,77 @@
         <v>0</v>
       </c>
       <c r="I74">
+        <v>10</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>5</v>
+      </c>
+      <c r="O74">
+        <v>5</v>
+      </c>
+      <c r="P74">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
+      <c r="A75" t="s">
+        <v>89</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>112</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>0</v>
+      </c>
+      <c r="I75">
         <v>18</v>
       </c>
-      <c r="J74">
-        <v>0</v>
-      </c>
-      <c r="K74">
-        <v>0</v>
-      </c>
-      <c r="L74">
-        <v>0</v>
-      </c>
-      <c r="M74">
-        <v>0</v>
-      </c>
-      <c r="N74">
-        <v>1</v>
-      </c>
-      <c r="O74">
-        <v>1</v>
-      </c>
-      <c r="P74">
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>0</v>
+      </c>
+      <c r="N75">
+        <v>1</v>
+      </c>
+      <c r="O75">
+        <v>1</v>
+      </c>
+      <c r="P75">
         <v>0</v>
       </c>
     </row>

--- a/Excel/Milano/total_Milano.xlsx
+++ b/Excel/Milano/total_Milano.xlsx
@@ -112,22 +112,22 @@
     <t>Jacopo</t>
   </si>
   <si>
+    <t>Cerro</t>
+  </si>
+  <si>
     <t>Federico (Damiano)</t>
   </si>
   <si>
     <t>Robi (Stoppi)</t>
   </si>
   <si>
-    <t>Cerro</t>
-  </si>
-  <si>
     <t>Francesco</t>
   </si>
   <si>
+    <t>Riccardo Ricci</t>
+  </si>
+  <si>
     <t>Matteo (Riccardo)</t>
-  </si>
-  <si>
-    <t>Riccardo Ricci</t>
   </si>
   <si>
     <t>Franco</t>
@@ -1398,7 +1398,7 @@
         <v>116</v>
       </c>
       <c r="J14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1410,10 +1410,10 @@
         <v>18</v>
       </c>
       <c r="N14">
-        <v>10.19</v>
+        <v>10.38</v>
       </c>
       <c r="O14">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -1577,40 +1577,40 @@
         <v>17</v>
       </c>
       <c r="C18">
+        <v>10</v>
+      </c>
+      <c r="D18">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>103</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>50</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>1.1</v>
+      </c>
+      <c r="M18">
         <v>11</v>
       </c>
-      <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>75</v>
-      </c>
-      <c r="J18">
-        <v>2</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0.73</v>
-      </c>
-      <c r="M18">
-        <v>8</v>
-      </c>
       <c r="N18">
-        <v>11.82</v>
+        <v>13</v>
       </c>
       <c r="O18">
         <v>130</v>
@@ -1624,16 +1624,16 @@
         <v>33</v>
       </c>
       <c r="B19">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19">
         <v>11</v>
       </c>
       <c r="D19">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F19">
         <v>0</v>
@@ -1645,28 +1645,28 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.36</v>
+        <v>0.73</v>
       </c>
       <c r="M19">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="N19">
-        <v>11.73</v>
+        <v>11.82</v>
       </c>
       <c r="O19">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P19">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1677,13 +1677,13 @@
         <v>19</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="F20">
         <v>0</v>
@@ -1695,7 +1695,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1704,19 +1704,19 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.1</v>
+        <v>0.36</v>
       </c>
       <c r="M20">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="N20">
-        <v>12.7</v>
+        <v>11.73</v>
       </c>
       <c r="O20">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1777,46 +1777,46 @@
         <v>21</v>
       </c>
       <c r="C22">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D22">
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>48</v>
+        <v>82</v>
       </c>
       <c r="J22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1.71</v>
+        <v>0.7</v>
       </c>
       <c r="M22">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N22">
-        <v>15</v>
+        <v>10.5</v>
       </c>
       <c r="O22">
         <v>105</v>
       </c>
       <c r="P22">
-        <v>-1</v>
+        <v>-3</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1827,46 +1827,46 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D23">
         <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>82</v>
+        <v>48</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K23">
         <v>1</v>
       </c>
       <c r="L23">
-        <v>0.7</v>
+        <v>1.71</v>
       </c>
       <c r="M23">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N23">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="O23">
         <v>105</v>
       </c>
       <c r="P23">
-        <v>-3</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" spans="1:16">
